--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="144">
   <si>
     <t>Doi</t>
   </si>
@@ -557,6 +557,69 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,  Hong%Xu%NULL%1,  Ming%Yang%NULL%0,  Yilan%Zeng%NULL%1,  Hong%Chen%NULL%0,  Ru%Liu%NULL%1,  Qingfeng%Li%NULL%1,  Na%Zhang%NULL%1,  Dan%Wang%188170370@qq.com%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,   Yongzhen%Fan%NULL%0,   Ming%Chen%NULL%0,   Xiaoyan%Wu%NULL%0,   Lin%Zhang%NULL%0,   Tao%He%NULL%0,   Hairong%Wang%NULL%0,   Jing%Wan%NULL%0,   Xinghuan%Wang%NULL%0,   Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,   Lei%Tu%NULL%0,   Lei%Tu%NULL%0,   Pingjun%Zhu%NULL%0,   Pingjun%Zhu%NULL%0,   Mi%Mu%NULL%0,   Mi%Mu%NULL%0,   Runsheng%Wang%NULL%0,   Pengcheng%Yang%NULL%0,   Xi%Wang%NULL%0,   Chao%Hu%NULL%0,   Rongyu%Ping%NULL%0,   Peng%Hu%NULL%0,   Tianzhi%Li%NULL%0,   Feng%Cao%NULL%0,   Christopher%Chang%NULL%0,   Qinyong%Hu%NULL%0,   Yang%Jin%NULL%0,   Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,   Xiangjie%Li%NULL%1,   Mingquan%Chen%NULL%2,   Mingquan%Chen%NULL%0,   Yi%Feng%NULL%1,   Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%2,  Dong%Xiang%coreGivesNoEmail%2,  Gao%Ya-dong%coreGivesNoEmail%2,  Yan%You-qin%coreGivesNoEmail%2,  Yang%Yi-bin%coreGivesNoEmail%2,  Yuan%Ya-dong%coreGivesNoEmail%2,  Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,   Wenbo%He%NULL%1,   Xiaomei%Yu%NULL%1,   Dalong%Hu%NULL%1,   Mingwei%Bao%NULL%1,   Huafen%Liu%NULL%1,   Jiali%Zhou%NULL%1,   Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,  Bettinardi%Alessandra%coreGivesNoEmail%1,  Bonetti%Graziella%coreGivesNoEmail%1,  Borrelli%Gianluca%coreGivesNoEmail%1,  Fiordalisi%Gianfranco%coreGivesNoEmail%1,  Lippi%Giuseppe%coreGivesNoEmail%2,  Manelli%Filippo%coreGivesNoEmail%1,  Marino%Antonio%coreGivesNoEmail%1,  Menolfi%Annamaria%coreGivesNoEmail%1,  Patroni%Andrea%coreGivesNoEmail%1,  Saggini%Sara%coreGivesNoEmail%1,  Volpi%Roberta%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,   Linlin%Xie%NULL%1,   Rui%Liu%NULL%1,   Jie%Yang%NULL%0,   Fang%Liu%NULL%1,   Kailang%Wu%NULL%1,   Lang%Chen%NULL%1,   Wei%Hou%NULL%0,   Yong%Feng%yongfeng@whu.edu.cn%1,   Chengliang%Zhu%xinchengzhu@163.com%2,   Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,   Shaobo%Shi%NULL%2,   Shaobo%Shi%NULL%0,   Jiling%Zhu%NULL%1,   Jinzhi%Shi%NULL%1,   Kai%Dai%NULL%1,   Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,   Bo%Hu%NULL%2,   Yao%Zhang%NULL%1,   Hao%Wang%NULL%2,   Xiaoyang%Zhou%NULL%1,   Wei%Hu%NULL%1,   Yuting%Cheng%NULL%1,   Jie%Yan%NULL%0,   Haiqin%Ping%NULL%1,   Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,   Kwan Ho%Lee%NULL%2,   Kwan Ho%Lee%NULL%0,   Jin Hong%Chung%NULL%2,   Jin Hong%Chung%NULL%0,   Kyeong-Cheol%Shin%NULL%2,   Kyeong-Cheol%Shin%NULL%0,   Eun Young%Choi%NULL%2,   Eun Young%Choi%NULL%0,   Hyun Jung%Jin%NULL%2,   Hyun Jung%Jin%NULL%0,   Jong Geol%Jang%NULL%2,   Jong Geol%Jang%NULL%0,   Wonhwa%Lee%NULL%2,   Wonhwa%Lee%NULL%0,   June Hong%Ahn%NULL%2,   June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,   Hong%Xu%NULL%1,   Ming%Yang%NULL%2,   Yilan%Zeng%NULL%1,   Hong%Chen%NULL%1,   Ru%Liu%NULL%1,   Qingfeng%Li%NULL%1,   Na%Zhang%NULL%1,   Dan%Wang%188170370@qq.com%0]</t>
   </si>
 </sst>
 </file>
@@ -889,6 +952,9 @@
       <c r="H1" t="s">
         <v>32</v>
       </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -904,7 +970,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -914,6 +980,9 @@
       </c>
       <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -930,7 +999,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -940,6 +1009,9 @@
       </c>
       <c r="H3" t="s">
         <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -956,7 +1028,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -966,6 +1038,9 @@
       </c>
       <c r="H4" t="s">
         <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -993,6 +1068,9 @@
       <c r="H5" t="s">
         <v>48</v>
       </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1008,7 +1086,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -1018,6 +1096,9 @@
       </c>
       <c r="H6" t="s">
         <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -1034,7 +1115,7 @@
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1044,6 +1125,9 @@
       </c>
       <c r="H7" t="s">
         <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1060,7 +1144,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1070,6 +1154,9 @@
       </c>
       <c r="H8" t="s">
         <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -1086,16 +1173,19 @@
         <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1112,7 +1202,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -1122,6 +1212,9 @@
       </c>
       <c r="H10" t="s">
         <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1138,16 +1231,19 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -1164,7 +1260,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1174,6 +1270,9 @@
       </c>
       <c r="H12" t="s">
         <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -1190,7 +1289,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -1200,6 +1299,9 @@
       </c>
       <c r="H13" t="s">
         <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1216,16 +1318,19 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
         <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -1253,6 +1358,9 @@
       <c r="H15" t="s">
         <v>48</v>
       </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1268,7 +1376,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
         <v>79</v>
@@ -1278,6 +1386,9 @@
       </c>
       <c r="H16" t="s">
         <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17">
@@ -1294,7 +1405,7 @@
         <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
         <v>83</v>
@@ -1304,6 +1415,9 @@
       </c>
       <c r="H17" t="s">
         <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
         <v>88</v>
@@ -1330,6 +1444,9 @@
       </c>
       <c r="H18" t="s">
         <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -1346,7 +1463,7 @@
         <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -1356,6 +1473,9 @@
       </c>
       <c r="H19" t="s">
         <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -1372,7 +1492,7 @@
         <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
         <v>98</v>
@@ -1382,6 +1502,9 @@
       </c>
       <c r="H20" t="s">
         <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2135F-F322-4EAF-8412-CDDBE3FA7BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="181">
   <si>
     <t>Doi</t>
   </si>
@@ -119,9 +126,6 @@
   <si>
     <t xml:space="preserve">This case series study evaluates the association of underlying cardiovascular disease and myocardial injury on fatal outcomes in patients with coronavirus disease 2019 (COVID-19).
 </t>
-  </si>
-  <si>
-    <t>[Tao%Guo%NULL%0, Yongzhen%Fan%NULL%1, Ming%Chen%NULL%1, Xiaoyan%Wu%NULL%1, Lin%Zhang%NULL%1, Tao%He%NULL%1, Hairong%Wang%NULL%1, Jing%Wan%NULL%1, Xinghuan%Wang%NULL%1, Zhibing%Lu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7101506</t>
@@ -152,9 +156,6 @@
  This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
  Kaletra and TCM played an important role in the treatment of the viral pneumonia.
  Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%2, Wei%Fang%NULL%2, Yu%Zheng%yuzheng1@cdutcm.edu.cn%2, Boqun%Li%279685211@qq.com%4, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%2, Chunhui%Lang%NULL%2, Daoqiu%Huang%NULL%2, Qiuyan%Sun%NULL%2, Yan%Xiong%NULL%2, Xia%Huang%NULL%2, Jinglong%Lv%NULL%2, Yaling%Luo%NULL%2, Li%Shen%NULL%2, Haoran%Yang%NULL%2, Gu%Huang%NULL%2, Ruishan%Yang%NULL%2]</t>
   </si>
   <si>
     <t>PMC7228368</t>
@@ -186,9 +187,6 @@
 </t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%7, Ronghui%Du%NULL%2, Guohui%Fan%NULL%3, Ying%Liu%NULL%4, Zhibo%Liu%NULL%2, Jie%Xiang%NULL%4, Yeming%Wang%NULL%3, Bin%Song%NULL%2, Xiaoying%Gu%NULL%3, Lulu%Guan%NULL%2, Yuan%Wei%NULL%5, Hui%Li%NULL%3, Xudong%Wu%NULL%2, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%2, Yi%Zhang%NULL%2, Hua%Chen%NULL%2, Bin%Cao%NULL%3]</t>
-  </si>
-  <si>
     <t>PMC7270627</t>
   </si>
   <si>
@@ -200,9 +198,6 @@
   <si>
     <t xml:space="preserve">Rationale: The global death toll from coronavirus disease (COVID-19) virus as of May 12, 2020, exceeds 286,000. The risk factors for death were attributed to advanced age and comorbidities but have not been accurately defined.
 </t>
-  </si>
-  <si>
-    <t>[Yingzhen%Du%NULL%0, Lei%Tu%NULL%2, Lei%Tu%NULL%0, Pingjun%Zhu%NULL%2, Pingjun%Zhu%NULL%0, Mi%Mu%NULL%2, Mi%Mu%NULL%0, Runsheng%Wang%NULL%1, Pengcheng%Yang%NULL%1, Xi%Wang%NULL%1, Chao%Hu%NULL%1, Rongyu%Ping%NULL%1, Peng%Hu%NULL%1, Tianzhi%Li%NULL%1, Feng%Cao%NULL%1, Christopher%Chang%NULL%1, Qinyong%Hu%NULL%1, Yang%Jin%NULL%1, Guogang%Xu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7258652</t>
@@ -221,9 +216,6 @@
  This study performed the first state-of-art single cell atlas of adult human heart, and revealed that pericytes with high expression of ACE2 might act as the target cardiac cell of SARS-CoV-2. The pericytes injury due to virus infection may result in capillary endothelial cells dysfunction, inducing microvascular dysfunction.
  And patients with basic heart failure disease showed increased ACE2 expression at both mRNA and protein levels, meaning that if infected by the virus these patients may have higher risk of heart attack and critically ill condition.
  The finding of this study explains the high rate of severe cases among COVID-19 patients with basic cardiovascular disease; and these results also perhaps provide important reference to clinical treatment of cardiac injury among severe patients infected by SARS-CoV-2.</t>
-  </si>
-  <si>
-    <t>[Liang%Chen%liang.chen9@hotmail.com%1, Xiangjie%Li%NULL%1, Mingquan%Chen%NULL%2, Mingquan%Chen%NULL%0, Yi%Feng%NULL%1, Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7184507</t>
@@ -258,9 +250,6 @@
 </t>
   </si>
   <si>
-    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%5, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%3, Wen-hua%Liang%NULL%3, Chun-quan%Ou%NULL%2, Jian-xing%He%NULL%3, Lei%Liu%NULL%3, Hong%Shan%NULL%3, Chun-liang%Lei%NULL%3, David S.C.%Hui%NULL%2, Bin%Du%NULL%2, Lan-juan%Li%NULL%2, Guang%Zeng%NULL%2, Kwok-Yung%Yuen%NULL%2, Ru-chong%Chen%NULL%3, Chun-li%Tang%NULL%3, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%2, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%3, Jin-lin%Wang%NULL%2, Zi-jing%Liang%NULL%2, Yi-xiang%Peng%NULL%3, Li%Wei%NULL%3, Yong%Liu%NULL%3, Ya-hua%Hu%NULL%3, Peng%Peng%NULL%3, Jian-ming%Wang%NULL%3, Ji-yang%Liu%NULL%3, Zhong%Chen%NULL%3, Gang%Li%NULL%3, Zhi-jian%Zheng%NULL%3, Shao-qin%Qiu%NULL%3, Jie%Luo%NULL%3, Chang-jiang%Ye%NULL%3, Shao-yong%Zhu%NULL%3, Nan-shan%Zhong%NULL%3]</t>
-  </si>
-  <si>
     <t>PMC7092819</t>
   </si>
   <si>
@@ -271,9 +260,6 @@
               •
               COVID-19 in the elderly patients was severe and highly fatal.
 </t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%0, Wenbo%He%NULL%1, Xiaomei%Yu%NULL%1, Dalong%Hu%NULL%1, Mingwei%Bao%NULL%1, Huafen%Liu%NULL%1, Jiali%Zhou%NULL%1, Hong%Jiang%NULL%1]</t>
   </si>
   <si>
     <t>PMC7118526</t>
@@ -306,9 +292,6 @@
 Funding
 National Key R&amp;amp;D Program of China.
 </t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%2, Xuan%Dong%NULL%2, Jieming%Qu%NULL%2, Fengyun%Gong%NULL%2, Yang%Han%NULL%2, Yang%Qiu%NULL%2, Jingli%Wang%NULL%2, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%4, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%2, Li%Zhang%NULL%3]</t>
   </si>
   <si>
     <t>PMC7135076</t>
@@ -343,9 +326,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%2, Jia'an%Xia%NULL%0, Hong%Liu%NULL%2, Yongran%Wu%NULL%2, Lu%Zhang%NULL%2, Zhui%Yu%NULL%2, Minghao%Fang%NULL%2, Ting%Yu%NULL%0, Yaxin%Wang%NULL%2, Shangwen%Pan%NULL%2, Xiaojing%Zou%NULL%2, Shiying%Yuan%NULL%2, You%Shang%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7102538</t>
   </si>
   <si>
@@ -356,9 +336,6 @@
  SARS‐CoV‐2 infection caused mildly to seriously and fatally respiratory, enteric, cardiovascular, and neurological diseases.
  In this study, we detected and analyzed the main laboratory indicators related to heart injury, creatine kinase isoenzyme‐MB (CK‐MB), myohemoglobin (MYO), cardiac troponin I (ultra‐TnI), and N‐terminal pro‐brain natriuretic peptide (NT‐proBNP), in 273 patients with COVID‐19 and investigated the correlation between heart injury and severity of the disease.
  It was found that higher concentration in venous blood of CK‐MB, MYO, ultra‐TnI, and NT‐proBNP were associated with the severity and case fatality rate of COVID‐19. Careful monitoring of the myocardiac enzyme profiles is of great importance in reducing the complications and mortality in patients with COVID‐19.</t>
-  </si>
-  <si>
-    <t>[Huan%Han%NULL%1, Linlin%Xie%NULL%1, Rui%Liu%NULL%1, Jie%Yang%NULL%2, Fang%Liu%NULL%1, Kailang%Wu%NULL%1, Lang%Chen%NULL%1, Wei%Hou%NULL%1, Yong%Feng%yongfeng@whu.edu.cn%1, Chengliang%Zhu%xinchengzhu@163.com%2, Chengliang%Zhu%xinchengzhu@163.com%0]</t>
   </si>
   <si>
     <t>PMC7228305</t>
@@ -373,9 +350,6 @@
  Among these patients, 83 patients had at least one complication.
  However, one patient who died of recurrent gastrointestinal bleeding was not directly linked to COVID‐19. The main complications of deceased patients with COVID‐19 were ARDS, myocardial injury, liver injury, renal insufficiency, and MODS.
 </t>
-  </si>
-  <si>
-    <t>[Fan%Yang%NULL%1, Shaobo%Shi%NULL%0, Shaobo%Shi%NULL%0, Jiling%Zhu%NULL%1, Jinzhi%Shi%NULL%1, Kai%Dai%NULL%1, Xiaobei%Chen%121278395@qq.com%1]</t>
   </si>
   <si>
     <t>PMC7262332</t>
@@ -407,9 +381,6 @@
 </t>
   </si>
   <si>
-    <t>[Qing%Deng%NULL%1, Bo%Hu%NULL%2, Yao%Zhang%NULL%1, Hao%Wang%NULL%1, Xiaoyang%Zhou%NULL%1, Wei%Hu%NULL%1, Yuting%Cheng%NULL%1, Jie%Yan%NULL%0, Haiqin%Ping%NULL%1, Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
-  </si>
-  <si>
     <t>PMC7141178</t>
   </si>
   <si>
@@ -435,9 +406,6 @@
  Here, we report the clinical characteristics and laboratory findings of SARS-CoV-2 patients in South Korea up to March 29, 2020.</t>
   </si>
   <si>
-    <t>[Kyung Soo%Hong%NULL%1, Kwan Ho%Lee%NULL%2, Kwan Ho%Lee%NULL%0, Jin Hong%Chung%NULL%2, Jin Hong%Chung%NULL%0, Kyeong-Cheol%Shin%NULL%2, Kyeong-Cheol%Shin%NULL%0, Eun Young%Choi%NULL%2, Eun Young%Choi%NULL%0, Hyun Jung%Jin%NULL%2, Hyun Jung%Jin%NULL%0, Jong Geol%Jang%NULL%2, Jong Geol%Jang%NULL%0, Wonhwa%Lee%NULL%2, Wonhwa%Lee%NULL%0, June Hong%Ahn%NULL%2, June Hong%Ahn%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7214108</t>
   </si>
   <si>
@@ -452,31 +420,10 @@
               Emerging Infectious Diseases, COVID-19.</t>
   </si>
   <si>
-    <t>[Yongli%Zheng%Zhyl1973@126.com%1, Hong%Xu%NULL%1, Ming%Yang%NULL%1, Yilan%Zeng%NULL%1, Hong%Chen%NULL%1, Ru%Liu%NULL%1, Qingfeng%Li%NULL%1, Na%Zhang%NULL%1, Dan%Wang%188170370@qq.com%1]</t>
-  </si>
-  <si>
     <t>PMC7146675</t>
   </si>
   <si>
     <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>[Tao%Guo%NULL%0,  Yongzhen%Fan%NULL%0,  Ming%Chen%NULL%0,  Xiaoyan%Wu%NULL%0,  Lin%Zhang%NULL%0,  Tao%He%NULL%0,  Hairong%Wang%NULL%0,  Jing%Wan%NULL%0,  Xinghuan%Wang%NULL%0,  Zhibing%Lu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,  Yi%Xiang%NULL%0,  Wei%Fang%NULL%0,  Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,  Boqun%Li%279685211@qq.com%0,  Boqun%Li%279685211@qq.com%0,  Yanjun%Hu%huyanjun@163.com%0,  Chunhui%Lang%NULL%0,  Daoqiu%Huang%NULL%0,  Qiuyan%Sun%NULL%0,  Yan%Xiong%NULL%0,  Xia%Huang%NULL%0,  Jinglong%Lv%NULL%0,  Yaling%Luo%NULL%0,  Li%Shen%NULL%0,  Haoran%Yang%NULL%0,  Gu%Huang%NULL%0,  Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yingzhen%Du%NULL%0,  Lei%Tu%NULL%0,  Lei%Tu%NULL%0,  Pingjun%Zhu%NULL%0,  Pingjun%Zhu%NULL%0,  Mi%Mu%NULL%0,  Mi%Mu%NULL%0,  Runsheng%Wang%NULL%0,  Pengcheng%Yang%NULL%0,  Xi%Wang%NULL%0,  Chao%Hu%NULL%0,  Rongyu%Ping%NULL%0,  Peng%Hu%NULL%0,  Tianzhi%Li%NULL%0,  Feng%Cao%NULL%0,  Christopher%Chang%NULL%0,  Qinyong%Hu%NULL%0,  Yang%Jin%NULL%0,  Guogang%Xu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Liang%Chen%liang.chen9@hotmail.com%1,  Xiangjie%Li%NULL%1,  Mingquan%Chen%NULL%2,  Mingquan%Chen%NULL%0,  Yi%Feng%NULL%1,  Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%0,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Wen-hua%Liang%NULL%0,  Chun-quan%Ou%NULL%0,  Jian-xing%He%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  David S.C.%Hui%NULL%0,  Bin%Du%NULL%0,  Lan-juan%Li%NULL%0,  Guang%Zeng%NULL%0,  Kwok-Yung%Yuen%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Ping-yan%Chen%NULL%0,  Jie%Xiang%NULL%0,  Shi-yue%Li%NULL%0,  Jin-lin%Wang%NULL%0,  Zi-jing%Liang%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Nan-shan%Zhong%NULL%0]</t>
   </si>
   <si>
     <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
@@ -504,25 +451,7 @@
  Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
   </si>
   <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%0, Dong%Xiang%coreGivesNoEmail%0, Gao%Ya-dong%coreGivesNoEmail%0, Yan%You-qin%coreGivesNoEmail%0, Yang%Yi-bin%coreGivesNoEmail%0, Yuan%Ya-dong%coreGivesNoEmail%0, Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%0,  Wenbo%He%NULL%0,  Xiaomei%Yu%NULL%0,  Dalong%Hu%NULL%0,  Mingwei%Bao%NULL%0,  Huafen%Liu%NULL%0,  Jiali%Zhou%NULL%0,  Hong%Jiang%NULL%0]</t>
-  </si>
-  <si>
     <t>Propuesta de adecuaci\u00f3n  de los protocolos de actuaci\u00f3n en cardiolog\u00eda intervencionista durante la COVID-19</t>
-  </si>
-  <si>
-    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0, Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0, Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0, Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0, Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%0,  Min%Zhou%NULL%0,  Xuan%Dong%NULL%0,  Jieming%Qu%NULL%0,  Fengyun%Gong%NULL%0,  Yang%Han%NULL%0,  Yang%Qiu%NULL%0,  Jingli%Wang%NULL%0,  Ying%Liu%NULL%0,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%0,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%0,  Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
   </si>
   <si>
     <t>Laboratory predictors of death from coronavirus disease 2019 (COVID-19) in the area of Valcamonica, Italy</t>
@@ -541,123 +470,316 @@
   Conclusions The most important laboratory abnormalities described here in a subset of European COVID-19 patients residing in Valcamonica are highly predictive of in-hospital death and may be useful for guiding risk assessment and clinical decision-making</t>
   </si>
   <si>
-    <t>[Anesi%Adriano%coreGivesNoEmail%0, Bettinardi%Alessandra%coreGivesNoEmail%0, Bonetti%Graziella%coreGivesNoEmail%0, Borrelli%Gianluca%coreGivesNoEmail%0, Fiordalisi%Gianfranco%coreGivesNoEmail%0, Lippi%Giuseppe%coreGivesNoEmail%0, Manelli%Filippo%coreGivesNoEmail%0, Marino%Antonio%coreGivesNoEmail%0, Menolfi%Annamaria%coreGivesNoEmail%0, Patroni%Andrea%coreGivesNoEmail%0, Saggini%Sara%coreGivesNoEmail%0, Volpi%Roberta%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Huan%Han%NULL%2,  Linlin%Xie%NULL%2,  Rui%Liu%NULL%2,  Jie%Yang%NULL%0,  Fang%Liu%NULL%3,  Kailang%Wu%NULL%3,  Lang%Chen%NULL%2,  Wei%Hou%NULL%0,  Yong%Feng%yongfeng@whu.edu.cn%3,  Chengliang%Zhu%xinchengzhu@163.com%4,  Chengliang%Zhu%xinchengzhu@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Fan%Yang%NULL%2,  Shaobo%Shi%NULL%4,  Shaobo%Shi%NULL%0,  Jiling%Zhu%NULL%2,  Jinzhi%Shi%NULL%2,  Kai%Dai%NULL%2,  Xiaobei%Chen%121278395@qq.com%2]</t>
-  </si>
-  <si>
-    <t>[Qing%Deng%NULL%2,  Bo%Hu%NULL%3,  Yao%Zhang%NULL%2,  Hao%Wang%NULL%3,  Xiaoyang%Zhou%NULL%2,  Wei%Hu%NULL%2,  Yuting%Cheng%NULL%2,  Jie%Yan%NULL%0,  Haiqin%Ping%NULL%2,  Qing%Zhou%qingzhou.wh.edu@hotmail.com%2]</t>
-  </si>
-  <si>
-    <t>[Kyung Soo%Hong%NULL%2,  Kwan Ho%Lee%NULL%4,  Kwan Ho%Lee%NULL%0,  Jin Hong%Chung%NULL%4,  Jin Hong%Chung%NULL%0,  Kyeong-Cheol%Shin%NULL%4,  Kyeong-Cheol%Shin%NULL%0,  Eun Young%Choi%NULL%4,  Eun Young%Choi%NULL%0,  Hyun Jung%Jin%NULL%4,  Hyun Jung%Jin%NULL%0,  Jong Geol%Jang%NULL%4,  Jong Geol%Jang%NULL%0,  Wonhwa%Lee%NULL%4,  Wonhwa%Lee%NULL%0,  June Hong%Ahn%NULL%4,  June Hong%Ahn%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yongli%Zheng%Zhyl1973@126.com%1,  Hong%Xu%NULL%1,  Ming%Yang%NULL%0,  Yilan%Zeng%NULL%1,  Hong%Chen%NULL%0,  Ru%Liu%NULL%1,  Qingfeng%Li%NULL%1,  Na%Zhang%NULL%1,  Dan%Wang%188170370@qq.com%0]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Tao%Guo%NULL%0,   Yongzhen%Fan%NULL%0,   Ming%Chen%NULL%0,   Xiaoyan%Wu%NULL%0,   Lin%Zhang%NULL%0,   Tao%He%NULL%0,   Hairong%Wang%NULL%0,   Jing%Wan%NULL%0,   Xinghuan%Wang%NULL%0,   Zhibing%Lu%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>[Yingzhen%Du%NULL%0,   Lei%Tu%NULL%0,   Lei%Tu%NULL%0,   Pingjun%Zhu%NULL%0,   Pingjun%Zhu%NULL%0,   Mi%Mu%NULL%0,   Mi%Mu%NULL%0,   Runsheng%Wang%NULL%0,   Pengcheng%Yang%NULL%0,   Xi%Wang%NULL%0,   Chao%Hu%NULL%0,   Rongyu%Ping%NULL%0,   Peng%Hu%NULL%0,   Tianzhi%Li%NULL%0,   Feng%Cao%NULL%0,   Christopher%Chang%NULL%0,   Qinyong%Hu%NULL%0,   Yang%Jin%NULL%0,   Guogang%Xu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Liang%Chen%liang.chen9@hotmail.com%1,   Xiangjie%Li%NULL%1,   Mingquan%Chen%NULL%2,   Mingquan%Chen%NULL%0,   Yi%Feng%NULL%1,   Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%2,  Dong%Xiang%coreGivesNoEmail%2,  Gao%Ya-dong%coreGivesNoEmail%2,  Yan%You-qin%coreGivesNoEmail%2,  Yang%Yi-bin%coreGivesNoEmail%2,  Yuan%Ya-dong%coreGivesNoEmail%2,  Zhang%Jin-jin%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%0,   Wenbo%He%NULL%1,   Xiaomei%Yu%NULL%1,   Dalong%Hu%NULL%1,   Mingwei%Bao%NULL%1,   Huafen%Liu%NULL%1,   Jiali%Zhou%NULL%1,   Hong%Jiang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Anesi%Adriano%coreGivesNoEmail%0,  Bettinardi%Alessandra%coreGivesNoEmail%1,  Bonetti%Graziella%coreGivesNoEmail%1,  Borrelli%Gianluca%coreGivesNoEmail%1,  Fiordalisi%Gianfranco%coreGivesNoEmail%1,  Lippi%Giuseppe%coreGivesNoEmail%2,  Manelli%Filippo%coreGivesNoEmail%1,  Marino%Antonio%coreGivesNoEmail%1,  Menolfi%Annamaria%coreGivesNoEmail%1,  Patroni%Andrea%coreGivesNoEmail%1,  Saggini%Sara%coreGivesNoEmail%1,  Volpi%Roberta%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Huan%Han%NULL%2,   Linlin%Xie%NULL%1,   Rui%Liu%NULL%1,   Jie%Yang%NULL%0,   Fang%Liu%NULL%1,   Kailang%Wu%NULL%1,   Lang%Chen%NULL%1,   Wei%Hou%NULL%0,   Yong%Feng%yongfeng@whu.edu.cn%1,   Chengliang%Zhu%xinchengzhu@163.com%2,   Chengliang%Zhu%xinchengzhu@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Fan%Yang%NULL%2,   Shaobo%Shi%NULL%2,   Shaobo%Shi%NULL%0,   Jiling%Zhu%NULL%1,   Jinzhi%Shi%NULL%1,   Kai%Dai%NULL%1,   Xiaobei%Chen%121278395@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Qing%Deng%NULL%2,   Bo%Hu%NULL%2,   Yao%Zhang%NULL%1,   Hao%Wang%NULL%2,   Xiaoyang%Zhou%NULL%1,   Wei%Hu%NULL%1,   Yuting%Cheng%NULL%1,   Jie%Yan%NULL%0,   Haiqin%Ping%NULL%1,   Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Kyung Soo%Hong%NULL%2,   Kwan Ho%Lee%NULL%2,   Kwan Ho%Lee%NULL%0,   Jin Hong%Chung%NULL%2,   Jin Hong%Chung%NULL%0,   Kyeong-Cheol%Shin%NULL%2,   Kyeong-Cheol%Shin%NULL%0,   Eun Young%Choi%NULL%2,   Eun Young%Choi%NULL%0,   Hyun Jung%Jin%NULL%2,   Hyun Jung%Jin%NULL%0,   Jong Geol%Jang%NULL%2,   Jong Geol%Jang%NULL%0,   Wonhwa%Lee%NULL%2,   Wonhwa%Lee%NULL%0,   June Hong%Ahn%NULL%2,   June Hong%Ahn%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yongli%Zheng%Zhyl1973@126.com%1,   Hong%Xu%NULL%1,   Ming%Yang%NULL%2,   Yilan%Zeng%NULL%1,   Hong%Chen%NULL%1,   Ru%Liu%NULL%1,   Qingfeng%Li%NULL%1,   Na%Zhang%NULL%1,   Dan%Wang%188170370@qq.com%0]</t>
+    <t>[Tao%Guo%NULL%0,    Yongzhen%Fan%NULL%0,    Ming%Chen%NULL%0,    Xiaoyan%Wu%NULL%0,    Lin%Zhang%NULL%0,    Tao%He%NULL%0,    Hairong%Wang%NULL%0,    Jing%Wan%NULL%0,    Xinghuan%Wang%NULL%0,    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,    Yi%Xiang%NULL%0,    Wei%Fang%NULL%0,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,    Boqun%Li%279685211@qq.com%0,    Boqun%Li%279685211@qq.com%0,    Yanjun%Hu%huyanjun@163.com%0,    Chunhui%Lang%NULL%0,    Daoqiu%Huang%NULL%0,    Qiuyan%Sun%NULL%0,    Yan%Xiong%NULL%0,    Xia%Huang%NULL%0,    Jinglong%Lv%NULL%0,    Yaling%Luo%NULL%0,    Li%Shen%NULL%0,    Haoran%Yang%NULL%0,    Gu%Huang%NULL%0,    Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,    Lei%Tu%NULL%2,    Lei%Tu%NULL%0,    Pingjun%Zhu%NULL%2,    Pingjun%Zhu%NULL%0,    Mi%Mu%NULL%2,    Mi%Mu%NULL%0,    Runsheng%Wang%NULL%1,    Pengcheng%Yang%NULL%1,    Xi%Wang%NULL%1,    Chao%Hu%NULL%1,    Rongyu%Ping%NULL%1,    Peng%Hu%NULL%1,    Tianzhi%Li%NULL%1,    Feng%Cao%NULL%1,    Christopher%Chang%NULL%1,    Qinyong%Hu%NULL%1,    Yang%Jin%NULL%0,    Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,    Xiangjie%Li%NULL%1,    Mingquan%Chen%NULL%2,    Mingquan%Chen%NULL%0,    Yi%Feng%NULL%1,    Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,    Wenbo%He%NULL%0,    Xiaomei%Yu%NULL%0,    Dalong%Hu%NULL%0,    Mingwei%Bao%NULL%0,    Huafen%Liu%NULL%0,    Jiali%Zhou%NULL%0,    Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,    Min%Zhou%NULL%0,    Xuan%Dong%NULL%0,    Jieming%Qu%NULL%0,    Fengyun%Gong%NULL%0,    Yang%Han%NULL%0,    Yang%Qiu%NULL%0,    Jingli%Wang%NULL%0,    Ying%Liu%NULL%0,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%0,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%0,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,   Bettinardi%Alessandra%coreGivesNoEmail%0,   Bonetti%Graziella%coreGivesNoEmail%0,   Borrelli%Gianluca%coreGivesNoEmail%0,   Fiordalisi%Gianfranco%coreGivesNoEmail%0,   Lippi%Giuseppe%coreGivesNoEmail%0,   Manelli%Filippo%coreGivesNoEmail%0,   Marino%Antonio%coreGivesNoEmail%0,   Menolfi%Annamaria%coreGivesNoEmail%0,   Patroni%Andrea%coreGivesNoEmail%0,   Saggini%Sara%coreGivesNoEmail%0,   Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,    Linlin%Xie%NULL%1,    Rui%Liu%NULL%1,    Jie%Yang%NULL%0,    Fang%Liu%NULL%1,    Kailang%Wu%NULL%1,    Lang%Chen%NULL%1,    Wei%Hou%NULL%0,    Yong%Feng%yongfeng@whu.edu.cn%1,    Chengliang%Zhu%xinchengzhu@163.com%2,    Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,    Shaobo%Shi%NULL%2,    Shaobo%Shi%NULL%0,    Jiling%Zhu%NULL%1,    Jinzhi%Shi%NULL%1,    Kai%Dai%NULL%1,    Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,    Bo%Hu%NULL%2,    Yao%Zhang%NULL%0,    Hao%Wang%NULL%2,    Xiaoyang%Zhou%NULL%1,    Wei%Hu%NULL%1,    Yuting%Cheng%NULL%1,    Jie%Yan%NULL%0,    Haiqin%Ping%NULL%1,    Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,    Kwan Ho%Lee%NULL%2,    Kwan Ho%Lee%NULL%0,    Jin Hong%Chung%NULL%2,    Jin Hong%Chung%NULL%0,    Kyeong-Cheol%Shin%NULL%2,    Kyeong-Cheol%Shin%NULL%0,    Eun Young%Choi%NULL%2,    Eun Young%Choi%NULL%0,    Hyun Jung%Jin%NULL%2,    Hyun Jung%Jin%NULL%0,    Jong Geol%Jang%NULL%2,    Jong Geol%Jang%NULL%0,    Wonhwa%Lee%NULL%2,    Wonhwa%Lee%NULL%0,    June Hong%Ahn%NULL%0,    June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,    Hong%Xu%NULL%1,    Ming%Yang%NULL%0,    Yilan%Zeng%NULL%1,    Hong%Chen%NULL%0,    Ru%Liu%NULL%1,    Qingfeng%Li%NULL%1,    Na%Zhang%NULL%1,    Dan%Wang%188170370@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,     Yongzhen%Fan%NULL%0,     Ming%Chen%NULL%0,     Xiaoyan%Wu%NULL%0,     Lin%Zhang%NULL%0,     Tao%He%NULL%0,     Hairong%Wang%NULL%0,     Jing%Wan%NULL%0,     Xinghuan%Wang%NULL%0,     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,     Yi%Xiang%NULL%0,     Wei%Fang%NULL%0,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,     Boqun%Li%279685211@qq.com%0,     Boqun%Li%279685211@qq.com%0,     Yanjun%Hu%huyanjun@163.com%0,     Chunhui%Lang%NULL%0,     Daoqiu%Huang%NULL%0,     Qiuyan%Sun%NULL%0,     Yan%Xiong%NULL%0,     Xia%Huang%NULL%0,     Jinglong%Lv%NULL%0,     Yaling%Luo%NULL%0,     Li%Shen%NULL%0,     Haoran%Yang%NULL%0,     Gu%Huang%NULL%0,     Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,     Lei%Tu%NULL%2,     Lei%Tu%NULL%0,     Pingjun%Zhu%NULL%2,     Pingjun%Zhu%NULL%0,     Mi%Mu%NULL%2,     Mi%Mu%NULL%0,     Runsheng%Wang%NULL%1,     Pengcheng%Yang%NULL%1,     Xi%Wang%NULL%1,     Chao%Hu%NULL%1,     Rongyu%Ping%NULL%1,     Peng%Hu%NULL%1,     Tianzhi%Li%NULL%1,     Feng%Cao%NULL%1,     Christopher%Chang%NULL%1,     Qinyong%Hu%NULL%1,     Yang%Jin%NULL%0,     Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,     Xiangjie%Li%NULL%1,     Mingquan%Chen%NULL%2,     Mingquan%Chen%NULL%0,     Yi%Feng%NULL%1,     Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,     Wenbo%He%NULL%0,     Xiaomei%Yu%NULL%0,     Dalong%Hu%NULL%0,     Mingwei%Bao%NULL%0,     Huafen%Liu%NULL%0,     Jiali%Zhou%NULL%0,     Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%0,     Xuan%Dong%NULL%0,     Jieming%Qu%NULL%0,     Fengyun%Gong%NULL%0,     Yang%Han%NULL%0,     Yang%Qiu%NULL%0,     Jingli%Wang%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,    Bettinardi%Alessandra%coreGivesNoEmail%0,    Bonetti%Graziella%coreGivesNoEmail%0,    Borrelli%Gianluca%coreGivesNoEmail%0,    Fiordalisi%Gianfranco%coreGivesNoEmail%0,    Lippi%Giuseppe%coreGivesNoEmail%0,    Manelli%Filippo%coreGivesNoEmail%0,    Marino%Antonio%coreGivesNoEmail%0,    Menolfi%Annamaria%coreGivesNoEmail%0,    Patroni%Andrea%coreGivesNoEmail%0,    Saggini%Sara%coreGivesNoEmail%0,    Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,     Linlin%Xie%NULL%2,     Rui%Liu%NULL%2,     Jie%Yang%NULL%0,     Fang%Liu%NULL%3,     Kailang%Wu%NULL%3,     Lang%Chen%NULL%2,     Wei%Hou%NULL%0,     Yong%Feng%yongfeng@whu.edu.cn%3,     Chengliang%Zhu%xinchengzhu@163.com%4,     Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,     Shaobo%Shi%NULL%4,     Shaobo%Shi%NULL%0,     Jiling%Zhu%NULL%2,     Jinzhi%Shi%NULL%2,     Kai%Dai%NULL%2,     Xiaobei%Chen%121278395@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,     Bo%Hu%NULL%3,     Yao%Zhang%NULL%0,     Hao%Wang%NULL%2,     Xiaoyang%Zhou%NULL%2,     Wei%Hu%NULL%2,     Yuting%Cheng%NULL%2,     Jie%Yan%NULL%0,     Haiqin%Ping%NULL%2,     Qing%Zhou%qingzhou.wh.edu@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,     Kwan Ho%Lee%NULL%4,     Kwan Ho%Lee%NULL%0,     Jin Hong%Chung%NULL%4,     Jin Hong%Chung%NULL%0,     Kyeong-Cheol%Shin%NULL%4,     Kyeong-Cheol%Shin%NULL%0,     Eun Young%Choi%NULL%4,     Eun Young%Choi%NULL%0,     Hyun Jung%Jin%NULL%4,     Hyun Jung%Jin%NULL%0,     Jong Geol%Jang%NULL%4,     Jong Geol%Jang%NULL%0,     Wonhwa%Lee%NULL%4,     Wonhwa%Lee%NULL%0,     June Hong%Ahn%NULL%0,     June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,     Hong%Xu%NULL%1,     Ming%Yang%NULL%0,     Yilan%Zeng%NULL%1,     Hong%Chen%NULL%0,     Ru%Liu%NULL%1,     Qingfeng%Li%NULL%1,     Na%Zhang%NULL%1,     Dan%Wang%188170370@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,      Yongzhen%Fan%NULL%0,      Ming%Chen%NULL%0,      Xiaoyan%Wu%NULL%0,      Lin%Zhang%NULL%0,      Tao%He%NULL%0,      Hairong%Wang%NULL%0,      Jing%Wan%NULL%0,      Xinghuan%Wang%NULL%0,      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,      Yi%Xiang%NULL%0,      Wei%Fang%NULL%0,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,      Boqun%Li%279685211@qq.com%0,      Boqun%Li%279685211@qq.com%0,      Yanjun%Hu%huyanjun@163.com%0,      Chunhui%Lang%NULL%0,      Daoqiu%Huang%NULL%0,      Qiuyan%Sun%NULL%0,      Yan%Xiong%NULL%0,      Xia%Huang%NULL%0,      Jinglong%Lv%NULL%0,      Yaling%Luo%NULL%0,      Li%Shen%NULL%0,      Haoran%Yang%NULL%0,      Gu%Huang%NULL%0,      Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,      Lei%Tu%NULL%2,      Lei%Tu%NULL%0,      Pingjun%Zhu%NULL%2,      Pingjun%Zhu%NULL%0,      Mi%Mu%NULL%2,      Mi%Mu%NULL%0,      Runsheng%Wang%NULL%1,      Pengcheng%Yang%NULL%1,      Xi%Wang%NULL%1,      Chao%Hu%NULL%1,      Rongyu%Ping%NULL%1,      Peng%Hu%NULL%1,      Tianzhi%Li%NULL%1,      Feng%Cao%NULL%1,      Christopher%Chang%NULL%1,      Qinyong%Hu%NULL%1,      Yang%Jin%NULL%0,      Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,      Xiangjie%Li%NULL%1,      Mingquan%Chen%NULL%2,      Mingquan%Chen%NULL%0,      Yi%Feng%NULL%1,      Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,      Wenbo%He%NULL%0,      Xiaomei%Yu%NULL%0,      Dalong%Hu%NULL%0,      Mingwei%Bao%NULL%0,      Huafen%Liu%NULL%0,      Jiali%Zhou%NULL%0,      Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%0,      Xuan%Dong%NULL%0,      Jieming%Qu%NULL%0,      Fengyun%Gong%NULL%0,      Yang%Han%NULL%0,      Yang%Qiu%NULL%0,      Jingli%Wang%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,     Bettinardi%Alessandra%coreGivesNoEmail%0,     Bonetti%Graziella%coreGivesNoEmail%0,     Borrelli%Gianluca%coreGivesNoEmail%0,     Fiordalisi%Gianfranco%coreGivesNoEmail%0,     Lippi%Giuseppe%coreGivesNoEmail%0,     Manelli%Filippo%coreGivesNoEmail%0,     Marino%Antonio%coreGivesNoEmail%0,     Menolfi%Annamaria%coreGivesNoEmail%0,     Patroni%Andrea%coreGivesNoEmail%0,     Saggini%Sara%coreGivesNoEmail%0,     Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,      Linlin%Xie%NULL%2,      Rui%Liu%NULL%2,      Jie%Yang%NULL%0,      Fang%Liu%NULL%3,      Kailang%Wu%NULL%3,      Lang%Chen%NULL%2,      Wei%Hou%NULL%0,      Yong%Feng%yongfeng@whu.edu.cn%3,      Chengliang%Zhu%xinchengzhu@163.com%4,      Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,      Shaobo%Shi%NULL%4,      Shaobo%Shi%NULL%0,      Jiling%Zhu%NULL%2,      Jinzhi%Shi%NULL%2,      Kai%Dai%NULL%2,      Xiaobei%Chen%121278395@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,      Bo%Hu%NULL%3,      Yao%Zhang%NULL%0,      Hao%Wang%NULL%2,      Xiaoyang%Zhou%NULL%2,      Wei%Hu%NULL%2,      Yuting%Cheng%NULL%2,      Jie%Yan%NULL%0,      Haiqin%Ping%NULL%2,      Qing%Zhou%qingzhou.wh.edu@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,      Kwan Ho%Lee%NULL%4,      Kwan Ho%Lee%NULL%0,      Jin Hong%Chung%NULL%4,      Jin Hong%Chung%NULL%0,      Kyeong-Cheol%Shin%NULL%4,      Kyeong-Cheol%Shin%NULL%0,      Eun Young%Choi%NULL%4,      Eun Young%Choi%NULL%0,      Hyun Jung%Jin%NULL%4,      Hyun Jung%Jin%NULL%0,      Jong Geol%Jang%NULL%4,      Jong Geol%Jang%NULL%0,      Wonhwa%Lee%NULL%4,      Wonhwa%Lee%NULL%0,      June Hong%Ahn%NULL%0,      June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,      Hong%Xu%NULL%1,      Ming%Yang%NULL%0,      Yilan%Zeng%NULL%1,      Hong%Chen%NULL%0,      Ru%Liu%NULL%1,      Qingfeng%Li%NULL%1,      Na%Zhang%NULL%1,      Dan%Wang%188170370@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,       Yongzhen%Fan%NULL%0,       Ming%Chen%NULL%0,       Xiaoyan%Wu%NULL%0,       Lin%Zhang%NULL%0,       Tao%He%NULL%0,       Hairong%Wang%NULL%0,       Jing%Wan%NULL%0,       Xinghuan%Wang%NULL%0,       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,       Yi%Xiang%NULL%0,       Wei%Fang%NULL%0,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,       Boqun%Li%279685211@qq.com%0,       Boqun%Li%279685211@qq.com%0,       Yanjun%Hu%huyanjun@163.com%0,       Chunhui%Lang%NULL%0,       Daoqiu%Huang%NULL%0,       Qiuyan%Sun%NULL%0,       Yan%Xiong%NULL%0,       Xia%Huang%NULL%0,       Jinglong%Lv%NULL%0,       Yaling%Luo%NULL%0,       Li%Shen%NULL%0,       Haoran%Yang%NULL%0,       Gu%Huang%NULL%0,       Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,       Lei%Tu%NULL%2,       Lei%Tu%NULL%0,       Pingjun%Zhu%NULL%2,       Pingjun%Zhu%NULL%0,       Mi%Mu%NULL%2,       Mi%Mu%NULL%0,       Runsheng%Wang%NULL%1,       Pengcheng%Yang%NULL%1,       Xi%Wang%NULL%1,       Chao%Hu%NULL%1,       Rongyu%Ping%NULL%1,       Peng%Hu%NULL%1,       Tianzhi%Li%NULL%1,       Feng%Cao%NULL%1,       Christopher%Chang%NULL%1,       Qinyong%Hu%NULL%1,       Yang%Jin%NULL%0,       Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,       Xiangjie%Li%NULL%1,       Mingquan%Chen%NULL%2,       Mingquan%Chen%NULL%0,       Yi%Feng%NULL%1,       Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,       Wenbo%He%NULL%0,       Xiaomei%Yu%NULL%0,       Dalong%Hu%NULL%0,       Mingwei%Bao%NULL%0,       Huafen%Liu%NULL%0,       Jiali%Zhou%NULL%0,       Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%0,       Xuan%Dong%NULL%0,       Jieming%Qu%NULL%0,       Fengyun%Gong%NULL%0,       Yang%Han%NULL%0,       Yang%Qiu%NULL%0,       Jingli%Wang%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,      Bettinardi%Alessandra%coreGivesNoEmail%0,      Bonetti%Graziella%coreGivesNoEmail%0,      Borrelli%Gianluca%coreGivesNoEmail%0,      Fiordalisi%Gianfranco%coreGivesNoEmail%0,      Lippi%Giuseppe%coreGivesNoEmail%0,      Manelli%Filippo%coreGivesNoEmail%0,      Marino%Antonio%coreGivesNoEmail%0,      Menolfi%Annamaria%coreGivesNoEmail%0,      Patroni%Andrea%coreGivesNoEmail%0,      Saggini%Sara%coreGivesNoEmail%0,      Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,       Linlin%Xie%NULL%2,       Rui%Liu%NULL%2,       Jie%Yang%NULL%0,       Fang%Liu%NULL%3,       Kailang%Wu%NULL%3,       Lang%Chen%NULL%2,       Wei%Hou%NULL%0,       Yong%Feng%yongfeng@whu.edu.cn%3,       Chengliang%Zhu%xinchengzhu@163.com%4,       Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,       Shaobo%Shi%NULL%4,       Shaobo%Shi%NULL%0,       Jiling%Zhu%NULL%2,       Jinzhi%Shi%NULL%2,       Kai%Dai%NULL%2,       Xiaobei%Chen%121278395@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,       Bo%Hu%NULL%3,       Yao%Zhang%NULL%0,       Hao%Wang%NULL%2,       Xiaoyang%Zhou%NULL%2,       Wei%Hu%NULL%2,       Yuting%Cheng%NULL%2,       Jie%Yan%NULL%0,       Haiqin%Ping%NULL%2,       Qing%Zhou%qingzhou.wh.edu@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,       Kwan Ho%Lee%NULL%4,       Kwan Ho%Lee%NULL%0,       Jin Hong%Chung%NULL%4,       Jin Hong%Chung%NULL%0,       Kyeong-Cheol%Shin%NULL%4,       Kyeong-Cheol%Shin%NULL%0,       Eun Young%Choi%NULL%4,       Eun Young%Choi%NULL%0,       Hyun Jung%Jin%NULL%4,       Hyun Jung%Jin%NULL%0,       Jong Geol%Jang%NULL%4,       Jong Geol%Jang%NULL%0,       Wonhwa%Lee%NULL%4,       Wonhwa%Lee%NULL%0,       June Hong%Ahn%NULL%0,       June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,       Hong%Xu%NULL%1,       Ming%Yang%NULL%0,       Yilan%Zeng%NULL%1,       Hong%Chen%NULL%0,       Ru%Liu%NULL%1,       Qingfeng%Li%NULL%1,       Na%Zhang%NULL%1,       Dan%Wang%188170370@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,        Yongzhen%Fan%NULL%0,        Ming%Chen%NULL%0,        Xiaoyan%Wu%NULL%0,        Lin%Zhang%NULL%0,        Tao%He%NULL%0,        Hairong%Wang%NULL%0,        Jing%Wan%NULL%0,        Xinghuan%Wang%NULL%0,        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,        Yi%Xiang%NULL%0,        Wei%Fang%NULL%0,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,        Boqun%Li%279685211@qq.com%0,        Boqun%Li%279685211@qq.com%0,        Yanjun%Hu%huyanjun@163.com%0,        Chunhui%Lang%NULL%0,        Daoqiu%Huang%NULL%0,        Qiuyan%Sun%NULL%0,        Yan%Xiong%NULL%0,        Xia%Huang%NULL%0,        Jinglong%Lv%NULL%0,        Yaling%Luo%NULL%0,        Li%Shen%NULL%0,        Haoran%Yang%NULL%0,        Gu%Huang%NULL%0,        Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,        Lei%Tu%NULL%2,        Lei%Tu%NULL%0,        Pingjun%Zhu%NULL%2,        Pingjun%Zhu%NULL%0,        Mi%Mu%NULL%2,        Mi%Mu%NULL%0,        Runsheng%Wang%NULL%1,        Pengcheng%Yang%NULL%1,        Xi%Wang%NULL%1,        Chao%Hu%NULL%1,        Rongyu%Ping%NULL%1,        Peng%Hu%NULL%1,        Tianzhi%Li%NULL%1,        Feng%Cao%NULL%1,        Christopher%Chang%NULL%1,        Qinyong%Hu%NULL%1,        Yang%Jin%NULL%0,        Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,        Xiangjie%Li%NULL%1,        Mingquan%Chen%NULL%2,        Mingquan%Chen%NULL%0,        Yi%Feng%NULL%1,        Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,        Wenbo%He%NULL%0,        Xiaomei%Yu%NULL%0,        Dalong%Hu%NULL%0,        Mingwei%Bao%NULL%0,        Huafen%Liu%NULL%0,        Jiali%Zhou%NULL%0,        Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%0,        Xuan%Dong%NULL%0,        Jieming%Qu%NULL%0,        Fengyun%Gong%NULL%0,        Yang%Han%NULL%0,        Yang%Qiu%NULL%0,        Jingli%Wang%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,       Bettinardi%Alessandra%coreGivesNoEmail%0,       Bonetti%Graziella%coreGivesNoEmail%0,       Borrelli%Gianluca%coreGivesNoEmail%0,       Fiordalisi%Gianfranco%coreGivesNoEmail%0,       Lippi%Giuseppe%coreGivesNoEmail%0,       Manelli%Filippo%coreGivesNoEmail%0,       Marino%Antonio%coreGivesNoEmail%0,       Menolfi%Annamaria%coreGivesNoEmail%0,       Patroni%Andrea%coreGivesNoEmail%0,       Saggini%Sara%coreGivesNoEmail%0,       Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%2,        Linlin%Xie%NULL%2,        Rui%Liu%NULL%2,        Jie%Yang%NULL%0,        Fang%Liu%NULL%3,        Kailang%Wu%NULL%3,        Lang%Chen%NULL%2,        Wei%Hou%NULL%0,        Yong%Feng%yongfeng@whu.edu.cn%3,        Chengliang%Zhu%xinchengzhu@163.com%4,        Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,        Shaobo%Shi%NULL%4,        Shaobo%Shi%NULL%0,        Jiling%Zhu%NULL%2,        Jinzhi%Shi%NULL%2,        Kai%Dai%NULL%2,        Xiaobei%Chen%121278395@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,        Bo%Hu%NULL%3,        Yao%Zhang%NULL%0,        Hao%Wang%NULL%2,        Xiaoyang%Zhou%NULL%2,        Wei%Hu%NULL%2,        Yuting%Cheng%NULL%2,        Jie%Yan%NULL%0,        Haiqin%Ping%NULL%2,        Qing%Zhou%qingzhou.wh.edu@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,        Kwan Ho%Lee%NULL%4,        Kwan Ho%Lee%NULL%0,        Jin Hong%Chung%NULL%4,        Jin Hong%Chung%NULL%0,        Kyeong-Cheol%Shin%NULL%4,        Kyeong-Cheol%Shin%NULL%0,        Eun Young%Choi%NULL%4,        Eun Young%Choi%NULL%0,        Hyun Jung%Jin%NULL%4,        Hyun Jung%Jin%NULL%0,        Jong Geol%Jang%NULL%4,        Jong Geol%Jang%NULL%0,        Wonhwa%Lee%NULL%4,        Wonhwa%Lee%NULL%0,        June Hong%Ahn%NULL%0,        June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,        Hong%Xu%NULL%1,        Ming%Yang%NULL%0,        Yilan%Zeng%NULL%1,        Hong%Chen%NULL%0,        Ru%Liu%NULL%1,        Qingfeng%Li%NULL%1,        Na%Zhang%NULL%1,        Dan%Wang%188170370@qq.com%1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="167" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="168" formatCode="yyyy mmmm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="yyyy\ mmmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -665,7 +787,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -675,56 +797,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -914,20 +1027,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,15 +1071,15 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -970,85 +1088,85 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
       <c r="I2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>43918.0</v>
+        <v>43918</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>43921.0</v>
+        <v>43921</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1066,279 +1184,279 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
       <c r="I6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <v>43951.0</v>
+        <v>43951</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>43876.0</v>
+        <v>43876</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="8">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>44007.0</v>
+        <v>44007</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1356,13 +1474,13 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1370,165 +1488,165 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>44027.0</v>
+        <v>44027</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="8">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" display="about:blank" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="218">
   <si>
     <t>Doi</t>
   </si>
@@ -738,6 +738,117 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,        Hong%Xu%NULL%1,        Ming%Yang%NULL%0,        Yilan%Zeng%NULL%1,        Hong%Chen%NULL%0,        Ru%Liu%NULL%1,        Qingfeng%Li%NULL%1,        Na%Zhang%NULL%1,        Dan%Wang%188170370@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,         Yongzhen%Fan%NULL%2,         Ming%Chen%NULL%3,         Xiaoyan%Wu%NULL%3,         Lin%Zhang%NULL%3,         Tao%He%NULL%3,         Hairong%Wang%NULL%3,         Jing%Wan%NULL%2,         Xinghuan%Wang%NULL%0,         Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,         Yi%Xiang%NULL%0,         Wei%Fang%NULL%0,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,         Boqun%Li%279685211@qq.com%0,         Boqun%Li%279685211@qq.com%0,         Yanjun%Hu%huyanjun@163.com%0,         Chunhui%Lang%NULL%0,         Daoqiu%Huang%NULL%0,         Qiuyan%Sun%NULL%0,         Yan%Xiong%NULL%0,         Xia%Huang%NULL%0,         Jinglong%Lv%NULL%0,         Yaling%Luo%NULL%0,         Li%Shen%NULL%0,         Haoran%Yang%NULL%0,         Gu%Huang%NULL%0,         Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Clinical characteristics of 113 deceased patients with coronavirus disease 2019: retrospective study"</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,         Lei%Tu%NULL%5,         Lei%Tu%NULL%0,         Pingjun%Zhu%NULL%4,         Pingjun%Zhu%NULL%0,         Mi%Mu%NULL%5,         Mi%Mu%NULL%0,         Runsheng%Wang%NULL%3,         Pengcheng%Yang%NULL%3,         Xi%Wang%NULL%2,         Chao%Hu%NULL%3,         Rongyu%Ping%NULL%3,         Peng%Hu%NULL%3,         Tianzhi%Li%NULL%3,         Feng%Cao%NULL%2,         Christopher%Chang%NULL%2,         Qinyong%Hu%NULL%3,         Yang%Jin%NULL%2,         Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,         Xiangjie%Li%NULL%1,         Mingquan%Chen%NULL%2,         Mingquan%Chen%NULL%0,         Yi%Feng%NULL%1,         Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,         Wenbo%He%NULL%0,         Xiaomei%Yu%NULL%0,         Dalong%Hu%NULL%0,         Mingwei%Bao%NULL%0,         Huafen%Liu%NULL%0,         Jiali%Zhou%NULL%0,         Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%0,         Xuan%Dong%NULL%0,         Jieming%Qu%NULL%0,         Fengyun%Gong%NULL%0,         Yang%Han%NULL%0,         Yang%Qiu%NULL%0,         Jingli%Wang%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,        Bettinardi%Alessandra%coreGivesNoEmail%0,        Bonetti%Graziella%coreGivesNoEmail%0,        Borrelli%Gianluca%coreGivesNoEmail%0,        Fiordalisi%Gianfranco%coreGivesNoEmail%0,        Lippi%Giuseppe%coreGivesNoEmail%0,        Manelli%Filippo%coreGivesNoEmail%0,        Marino%Antonio%coreGivesNoEmail%0,        Menolfi%Annamaria%coreGivesNoEmail%0,        Patroni%Andrea%coreGivesNoEmail%0,        Saggini%Sara%coreGivesNoEmail%0,        Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%3,         Linlin%Xie%NULL%1,         Rui%Liu%NULL%1,         Jie%Yang%NULL%2,         Fang%Liu%NULL%1,         Kailang%Wu%NULL%1,         Lang%Chen%NULL%1,         Wei%Hou%NULL%0,         Yong%Feng%yongfeng@whu.edu.cn%1,         Chengliang%Zhu%xinchengzhu@163.com%2,         Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,         Shaobo%Shi%NULL%2,         Shaobo%Shi%NULL%0,         Jiling%Zhu%NULL%1,         Jinzhi%Shi%NULL%1,         Kai%Dai%NULL%1,         Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,         Bo%Hu%NULL%2,         Yao%Zhang%NULL%1,         Hao%Wang%NULL%1,         Xiaoyang%Zhou%NULL%1,         Wei%Hu%NULL%1,         Yuting%Cheng%NULL%1,         Jie%Yan%NULL%0,         Haiqin%Ping%NULL%1,         Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,         Kwan Ho%Lee%NULL%2,         Kwan Ho%Lee%NULL%0,         Jin Hong%Chung%NULL%2,         Jin Hong%Chung%NULL%0,         Kyeong-Cheol%Shin%NULL%2,         Kyeong-Cheol%Shin%NULL%0,         Eun Young%Choi%NULL%2,         Eun Young%Choi%NULL%0,         Hyun Jung%Jin%NULL%2,         Hyun Jung%Jin%NULL%0,         Jong Geol%Jang%NULL%2,         Jong Geol%Jang%NULL%0,         Wonhwa%Lee%NULL%2,         Wonhwa%Lee%NULL%0,         June Hong%Ahn%NULL%2,         June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,         Hong%Xu%NULL%1,         Ming%Yang%NULL%0,         Yilan%Zeng%NULL%1,         Hong%Chen%NULL%1,         Ru%Liu%NULL%1,         Qingfeng%Li%NULL%1,         Na%Zhang%NULL%1,         Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,          Yongzhen%Fan%NULL%2,          Ming%Chen%NULL%3,          Xiaoyan%Wu%NULL%3,          Lin%Zhang%NULL%3,          Tao%He%NULL%3,          Hairong%Wang%NULL%3,          Jing%Wan%NULL%2,          Xinghuan%Wang%NULL%0,          Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,          Yi%Xiang%NULL%0,          Wei%Fang%NULL%0,          Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,          Boqun%Li%279685211@qq.com%0,          Boqun%Li%279685211@qq.com%0,          Yanjun%Hu%huyanjun@163.com%0,          Chunhui%Lang%NULL%0,          Daoqiu%Huang%NULL%0,          Qiuyan%Sun%NULL%0,          Yan%Xiong%NULL%0,          Xia%Huang%NULL%0,          Jinglong%Lv%NULL%0,          Yaling%Luo%NULL%0,          Li%Shen%NULL%0,          Haoran%Yang%NULL%0,          Gu%Huang%NULL%0,          Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,          Lei%Tu%NULL%5,          Lei%Tu%NULL%0,          Pingjun%Zhu%NULL%4,          Pingjun%Zhu%NULL%0,          Mi%Mu%NULL%5,          Mi%Mu%NULL%0,          Runsheng%Wang%NULL%3,          Pengcheng%Yang%NULL%3,          Xi%Wang%NULL%2,          Chao%Hu%NULL%3,          Rongyu%Ping%NULL%3,          Peng%Hu%NULL%3,          Tianzhi%Li%NULL%3,          Feng%Cao%NULL%2,          Christopher%Chang%NULL%2,          Qinyong%Hu%NULL%3,          Yang%Jin%NULL%2,          Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,          Xiangjie%Li%NULL%1,          Mingquan%Chen%NULL%2,          Mingquan%Chen%NULL%0,          Yi%Feng%NULL%1,          Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%0,         Dong%Xiang%coreGivesNoEmail%0,         Gao%Ya-dong%coreGivesNoEmail%0,         Yan%You-qin%coreGivesNoEmail%0,         Yang%Yi-bin%coreGivesNoEmail%0,         Yuan%Ya-dong%coreGivesNoEmail%0,         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,          Wenbo%He%NULL%0,          Xiaomei%Yu%NULL%0,          Dalong%Hu%NULL%0,          Mingwei%Bao%NULL%0,          Huafen%Liu%NULL%0,          Jiali%Zhou%NULL%0,          Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%0,          Xuan%Dong%NULL%0,          Jieming%Qu%NULL%0,          Fengyun%Gong%NULL%0,          Yang%Han%NULL%0,          Yang%Qiu%NULL%0,          Jingli%Wang%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,         Bettinardi%Alessandra%coreGivesNoEmail%0,         Bonetti%Graziella%coreGivesNoEmail%0,         Borrelli%Gianluca%coreGivesNoEmail%0,         Fiordalisi%Gianfranco%coreGivesNoEmail%0,         Lippi%Giuseppe%coreGivesNoEmail%0,         Manelli%Filippo%coreGivesNoEmail%0,         Marino%Antonio%coreGivesNoEmail%0,         Menolfi%Annamaria%coreGivesNoEmail%0,         Patroni%Andrea%coreGivesNoEmail%0,         Saggini%Sara%coreGivesNoEmail%0,         Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,          Linlin%Xie%NULL%1,          Rui%Liu%NULL%1,          Jie%Yang%NULL%2,          Fang%Liu%NULL%1,          Kailang%Wu%NULL%1,          Lang%Chen%NULL%1,          Wei%Hou%NULL%0,          Yong%Feng%yongfeng@whu.edu.cn%1,          Chengliang%Zhu%xinchengzhu@163.com%2,          Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,          Shaobo%Shi%NULL%2,          Shaobo%Shi%NULL%0,          Jiling%Zhu%NULL%1,          Jinzhi%Shi%NULL%1,          Kai%Dai%NULL%1,          Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,          Bo%Hu%NULL%2,          Yao%Zhang%NULL%1,          Hao%Wang%NULL%1,          Xiaoyang%Zhou%NULL%1,          Wei%Hu%NULL%1,          Yuting%Cheng%NULL%1,          Jie%Yan%NULL%0,          Haiqin%Ping%NULL%1,          Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,          Kwan Ho%Lee%NULL%2,          Kwan Ho%Lee%NULL%0,          Jin Hong%Chung%NULL%2,          Jin Hong%Chung%NULL%0,          Kyeong-Cheol%Shin%NULL%2,          Kyeong-Cheol%Shin%NULL%0,          Eun Young%Choi%NULL%2,          Eun Young%Choi%NULL%0,          Hyun Jung%Jin%NULL%2,          Hyun Jung%Jin%NULL%0,          Jong Geol%Jang%NULL%2,          Jong Geol%Jang%NULL%0,          Wonhwa%Lee%NULL%2,          Wonhwa%Lee%NULL%0,          June Hong%Ahn%NULL%2,          June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,          Hong%Xu%NULL%1,          Ming%Yang%NULL%0,          Yilan%Zeng%NULL%1,          Hong%Chen%NULL%1,          Ru%Liu%NULL%1,          Qingfeng%Li%NULL%1,          Na%Zhang%NULL%1,          Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1199,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1117,7 +1228,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1146,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1169,7 +1280,7 @@
         <v>43921</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1178,13 +1289,13 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
@@ -1204,7 +1315,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1233,7 +1344,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1262,7 +1373,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1291,7 +1402,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1320,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1349,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1378,7 +1489,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1407,7 +1518,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1436,7 +1547,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1494,7 +1605,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -1523,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1552,7 +1663,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1581,7 +1692,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -1610,7 +1721,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="252">
   <si>
     <t>Doi</t>
   </si>
@@ -849,6 +849,108 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,          Hong%Xu%NULL%1,          Ming%Yang%NULL%0,          Yilan%Zeng%NULL%1,          Hong%Chen%NULL%1,          Ru%Liu%NULL%1,          Qingfeng%Li%NULL%1,          Na%Zhang%NULL%1,          Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,           Yongzhen%Fan%NULL%2,           Ming%Chen%NULL%3,           Xiaoyan%Wu%NULL%3,           Lin%Zhang%NULL%3,           Tao%He%NULL%3,           Hairong%Wang%NULL%3,           Jing%Wan%NULL%2,           Xinghuan%Wang%NULL%0,           Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,           Yi%Xiang%NULL%0,           Wei%Fang%NULL%0,           Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,           Boqun%Li%279685211@qq.com%0,           Boqun%Li%279685211@qq.com%0,           Yanjun%Hu%huyanjun@163.com%0,           Chunhui%Lang%NULL%0,           Daoqiu%Huang%NULL%0,           Qiuyan%Sun%NULL%0,           Yan%Xiong%NULL%0,           Xia%Huang%NULL%0,           Jinglong%Lv%NULL%0,           Yaling%Luo%NULL%0,           Li%Shen%NULL%0,           Haoran%Yang%NULL%0,           Gu%Huang%NULL%0,           Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,           Lei%Tu%NULL%5,           Lei%Tu%NULL%0,           Pingjun%Zhu%NULL%4,           Pingjun%Zhu%NULL%0,           Mi%Mu%NULL%5,           Mi%Mu%NULL%0,           Runsheng%Wang%NULL%3,           Pengcheng%Yang%NULL%3,           Xi%Wang%NULL%2,           Chao%Hu%NULL%3,           Rongyu%Ping%NULL%3,           Peng%Hu%NULL%3,           Tianzhi%Li%NULL%3,           Feng%Cao%NULL%2,           Christopher%Chang%NULL%2,           Qinyong%Hu%NULL%3,           Yang%Jin%NULL%2,           Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,           Xiangjie%Li%NULL%1,           Mingquan%Chen%NULL%2,           Mingquan%Chen%NULL%0,           Yi%Feng%NULL%1,           Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%0,          Dong%Xiang%coreGivesNoEmail%0,          Gao%Ya-dong%coreGivesNoEmail%0,          Yan%You-qin%coreGivesNoEmail%0,          Yang%Yi-bin%coreGivesNoEmail%0,          Yuan%Ya-dong%coreGivesNoEmail%0,          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,           Wenbo%He%NULL%0,           Xiaomei%Yu%NULL%0,           Dalong%Hu%NULL%0,           Mingwei%Bao%NULL%0,           Huafen%Liu%NULL%0,           Jiali%Zhou%NULL%0,           Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%0,           Xuan%Dong%NULL%0,           Jieming%Qu%NULL%0,           Fengyun%Gong%NULL%0,           Yang%Han%NULL%0,           Yang%Qiu%NULL%0,           Jingli%Wang%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,          Bettinardi%Alessandra%coreGivesNoEmail%0,          Bonetti%Graziella%coreGivesNoEmail%0,          Borrelli%Gianluca%coreGivesNoEmail%0,          Fiordalisi%Gianfranco%coreGivesNoEmail%0,          Lippi%Giuseppe%coreGivesNoEmail%0,          Manelli%Filippo%coreGivesNoEmail%0,          Marino%Antonio%coreGivesNoEmail%0,          Menolfi%Annamaria%coreGivesNoEmail%0,          Patroni%Andrea%coreGivesNoEmail%0,          Saggini%Sara%coreGivesNoEmail%0,          Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,           Linlin%Xie%NULL%1,           Rui%Liu%NULL%1,           Jie%Yang%NULL%2,           Fang%Liu%NULL%1,           Kailang%Wu%NULL%1,           Lang%Chen%NULL%1,           Wei%Hou%NULL%0,           Yong%Feng%yongfeng@whu.edu.cn%1,           Chengliang%Zhu%xinchengzhu@163.com%2,           Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,           Shaobo%Shi%NULL%2,           Shaobo%Shi%NULL%0,           Jiling%Zhu%NULL%1,           Jinzhi%Shi%NULL%1,           Kai%Dai%NULL%1,           Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,           Bo%Hu%NULL%2,           Yao%Zhang%NULL%1,           Hao%Wang%NULL%1,           Xiaoyang%Zhou%NULL%1,           Wei%Hu%NULL%1,           Yuting%Cheng%NULL%1,           Jie%Yan%NULL%0,           Haiqin%Ping%NULL%1,           Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,           Kwan Ho%Lee%NULL%2,           Kwan Ho%Lee%NULL%0,           Jin Hong%Chung%NULL%2,           Jin Hong%Chung%NULL%0,           Kyeong-Cheol%Shin%NULL%2,           Kyeong-Cheol%Shin%NULL%0,           Eun Young%Choi%NULL%2,           Eun Young%Choi%NULL%0,           Hyun Jung%Jin%NULL%2,           Hyun Jung%Jin%NULL%0,           Jong Geol%Jang%NULL%2,           Jong Geol%Jang%NULL%0,           Wonhwa%Lee%NULL%2,           Wonhwa%Lee%NULL%0,           June Hong%Ahn%NULL%2,           June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,           Hong%Xu%NULL%1,           Ming%Yang%NULL%0,           Yilan%Zeng%NULL%1,           Hong%Chen%NULL%1,           Ru%Liu%NULL%1,           Qingfeng%Li%NULL%1,           Na%Zhang%NULL%1,           Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,            Yongzhen%Fan%NULL%2,            Ming%Chen%NULL%3,            Xiaoyan%Wu%NULL%3,            Lin%Zhang%NULL%3,            Tao%He%NULL%3,            Hairong%Wang%NULL%3,            Jing%Wan%NULL%2,            Xinghuan%Wang%NULL%0,            Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,            Yi%Xiang%NULL%0,            Wei%Fang%NULL%0,            Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,            Boqun%Li%279685211@qq.com%0,            Boqun%Li%279685211@qq.com%0,            Yanjun%Hu%huyanjun@163.com%0,            Chunhui%Lang%NULL%0,            Daoqiu%Huang%NULL%0,            Qiuyan%Sun%NULL%0,            Yan%Xiong%NULL%0,            Xia%Huang%NULL%0,            Jinglong%Lv%NULL%0,            Yaling%Luo%NULL%0,            Li%Shen%NULL%0,            Haoran%Yang%NULL%0,            Gu%Huang%NULL%0,            Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,            Lei%Tu%NULL%5,            Lei%Tu%NULL%0,            Pingjun%Zhu%NULL%4,            Pingjun%Zhu%NULL%0,            Mi%Mu%NULL%5,            Mi%Mu%NULL%0,            Runsheng%Wang%NULL%3,            Pengcheng%Yang%NULL%3,            Xi%Wang%NULL%2,            Chao%Hu%NULL%3,            Rongyu%Ping%NULL%3,            Peng%Hu%NULL%3,            Tianzhi%Li%NULL%3,            Feng%Cao%NULL%2,            Christopher%Chang%NULL%2,            Qinyong%Hu%NULL%3,            Yang%Jin%NULL%2,            Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,            Xiangjie%Li%NULL%1,            Mingquan%Chen%NULL%2,            Mingquan%Chen%NULL%0,            Yi%Feng%NULL%1,            Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%0,           Dong%Xiang%coreGivesNoEmail%0,           Gao%Ya-dong%coreGivesNoEmail%0,           Yan%You-qin%coreGivesNoEmail%0,           Yang%Yi-bin%coreGivesNoEmail%0,           Yuan%Ya-dong%coreGivesNoEmail%0,           Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,            Wenbo%He%NULL%3,            Xiaomei%Yu%NULL%3,            Dalong%Hu%NULL%3,            Mingwei%Bao%NULL%3,            Huafen%Liu%NULL%3,            Jiali%Zhou%NULL%3,            Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,           Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,           Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,           Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,           Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%0,            Xuan%Dong%NULL%0,            Jieming%Qu%NULL%0,            Fengyun%Gong%NULL%0,            Yang%Han%NULL%0,            Yang%Qiu%NULL%0,            Jingli%Wang%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,           Bettinardi%Alessandra%coreGivesNoEmail%0,           Bonetti%Graziella%coreGivesNoEmail%0,           Borrelli%Gianluca%coreGivesNoEmail%0,           Fiordalisi%Gianfranco%coreGivesNoEmail%0,           Lippi%Giuseppe%coreGivesNoEmail%0,           Manelli%Filippo%coreGivesNoEmail%0,           Marino%Antonio%coreGivesNoEmail%0,           Menolfi%Annamaria%coreGivesNoEmail%0,           Patroni%Andrea%coreGivesNoEmail%0,           Saggini%Sara%coreGivesNoEmail%0,           Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,            Linlin%Xie%NULL%1,            Rui%Liu%NULL%1,            Jie%Yang%NULL%2,            Fang%Liu%NULL%1,            Kailang%Wu%NULL%1,            Lang%Chen%NULL%1,            Wei%Hou%NULL%2,            Yong%Feng%yongfeng@whu.edu.cn%1,            Chengliang%Zhu%xinchengzhu@163.com%2,            Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,            Shaobo%Shi%NULL%2,            Shaobo%Shi%NULL%0,            Jiling%Zhu%NULL%1,            Jinzhi%Shi%NULL%1,            Kai%Dai%NULL%1,            Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,            Bo%Hu%NULL%2,            Yao%Zhang%NULL%1,            Hao%Wang%NULL%1,            Xiaoyang%Zhou%NULL%1,            Wei%Hu%NULL%1,            Yuting%Cheng%NULL%1,            Jie%Yan%NULL%0,            Haiqin%Ping%NULL%1,            Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,            Kwan Ho%Lee%NULL%2,            Kwan Ho%Lee%NULL%0,            Jin Hong%Chung%NULL%2,            Jin Hong%Chung%NULL%0,            Kyeong-Cheol%Shin%NULL%2,            Kyeong-Cheol%Shin%NULL%0,            Eun Young%Choi%NULL%2,            Eun Young%Choi%NULL%0,            Hyun Jung%Jin%NULL%2,            Hyun Jung%Jin%NULL%0,            Jong Geol%Jang%NULL%2,            Jong Geol%Jang%NULL%0,            Wonhwa%Lee%NULL%2,            Wonhwa%Lee%NULL%0,            June Hong%Ahn%NULL%2,            June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,            Hong%Xu%NULL%1,            Ming%Yang%NULL%0,            Yilan%Zeng%NULL%1,            Hong%Chen%NULL%1,            Ru%Liu%NULL%1,            Qingfeng%Li%NULL%1,            Na%Zhang%NULL%1,            Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1301,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1228,7 +1330,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1257,7 +1359,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1315,7 +1417,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1344,7 +1446,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1373,7 +1475,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1402,7 +1504,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1431,7 +1533,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1460,7 +1562,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1489,7 +1591,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1518,7 +1620,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1547,7 +1649,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1605,7 +1707,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -1634,7 +1736,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1663,7 +1765,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1692,7 +1794,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -1721,7 +1823,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="286">
   <si>
     <t>Doi</t>
   </si>
@@ -951,6 +951,108 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,            Hong%Xu%NULL%1,            Ming%Yang%NULL%0,            Yilan%Zeng%NULL%1,            Hong%Chen%NULL%1,            Ru%Liu%NULL%1,            Qingfeng%Li%NULL%1,            Na%Zhang%NULL%1,            Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,             Yongzhen%Fan%NULL%2,             Ming%Chen%NULL%3,             Xiaoyan%Wu%NULL%3,             Lin%Zhang%NULL%3,             Tao%He%NULL%3,             Hairong%Wang%NULL%3,             Jing%Wan%NULL%2,             Xinghuan%Wang%NULL%0,             Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,             Yi%Xiang%NULL%0,             Wei%Fang%NULL%0,             Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,             Boqun%Li%279685211@qq.com%0,             Boqun%Li%279685211@qq.com%0,             Yanjun%Hu%huyanjun@163.com%0,             Chunhui%Lang%NULL%0,             Daoqiu%Huang%NULL%0,             Qiuyan%Sun%NULL%0,             Yan%Xiong%NULL%0,             Xia%Huang%NULL%0,             Jinglong%Lv%NULL%0,             Yaling%Luo%NULL%0,             Li%Shen%NULL%0,             Haoran%Yang%NULL%0,             Gu%Huang%NULL%0,             Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,             Lei%Tu%NULL%5,             Lei%Tu%NULL%0,             Pingjun%Zhu%NULL%4,             Pingjun%Zhu%NULL%0,             Mi%Mu%NULL%5,             Mi%Mu%NULL%0,             Runsheng%Wang%NULL%3,             Pengcheng%Yang%NULL%3,             Xi%Wang%NULL%2,             Chao%Hu%NULL%3,             Rongyu%Ping%NULL%3,             Peng%Hu%NULL%3,             Tianzhi%Li%NULL%3,             Feng%Cao%NULL%2,             Christopher%Chang%NULL%2,             Qinyong%Hu%NULL%3,             Yang%Jin%NULL%2,             Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,             Xiangjie%Li%NULL%1,             Mingquan%Chen%NULL%2,             Mingquan%Chen%NULL%0,             Yi%Feng%NULL%1,             Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%0,            Dong%Xiang%coreGivesNoEmail%0,            Gao%Ya-dong%coreGivesNoEmail%0,            Yan%You-qin%coreGivesNoEmail%0,            Yang%Yi-bin%coreGivesNoEmail%0,            Yuan%Ya-dong%coreGivesNoEmail%0,            Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,             Wenbo%He%NULL%3,             Xiaomei%Yu%NULL%3,             Dalong%Hu%NULL%3,             Mingwei%Bao%NULL%3,             Huafen%Liu%NULL%3,             Jiali%Zhou%NULL%3,             Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,            Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,            Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,            Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,            Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%0,             Xuan%Dong%NULL%0,             Jieming%Qu%NULL%0,             Fengyun%Gong%NULL%0,             Yang%Han%NULL%0,             Yang%Qiu%NULL%0,             Jingli%Wang%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,            Bettinardi%Alessandra%coreGivesNoEmail%0,            Bonetti%Graziella%coreGivesNoEmail%0,            Borrelli%Gianluca%coreGivesNoEmail%0,            Fiordalisi%Gianfranco%coreGivesNoEmail%0,            Lippi%Giuseppe%coreGivesNoEmail%0,            Manelli%Filippo%coreGivesNoEmail%0,            Marino%Antonio%coreGivesNoEmail%0,            Menolfi%Annamaria%coreGivesNoEmail%0,            Patroni%Andrea%coreGivesNoEmail%0,            Saggini%Sara%coreGivesNoEmail%0,            Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,             Linlin%Xie%NULL%1,             Rui%Liu%NULL%1,             Jie%Yang%NULL%2,             Fang%Liu%NULL%1,             Kailang%Wu%NULL%1,             Lang%Chen%NULL%1,             Wei%Hou%NULL%2,             Yong%Feng%yongfeng@whu.edu.cn%1,             Chengliang%Zhu%xinchengzhu@163.com%2,             Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,             Shaobo%Shi%NULL%2,             Shaobo%Shi%NULL%0,             Jiling%Zhu%NULL%1,             Jinzhi%Shi%NULL%1,             Kai%Dai%NULL%1,             Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,             Bo%Hu%NULL%2,             Yao%Zhang%NULL%1,             Hao%Wang%NULL%1,             Xiaoyang%Zhou%NULL%1,             Wei%Hu%NULL%1,             Yuting%Cheng%NULL%1,             Jie%Yan%NULL%0,             Haiqin%Ping%NULL%1,             Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,             Kwan Ho%Lee%NULL%2,             Kwan Ho%Lee%NULL%0,             Jin Hong%Chung%NULL%2,             Jin Hong%Chung%NULL%0,             Kyeong-Cheol%Shin%NULL%2,             Kyeong-Cheol%Shin%NULL%0,             Eun Young%Choi%NULL%2,             Eun Young%Choi%NULL%0,             Hyun Jung%Jin%NULL%2,             Hyun Jung%Jin%NULL%0,             Jong Geol%Jang%NULL%2,             Jong Geol%Jang%NULL%0,             Wonhwa%Lee%NULL%2,             Wonhwa%Lee%NULL%0,             June Hong%Ahn%NULL%2,             June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,             Hong%Xu%NULL%1,             Ming%Yang%NULL%0,             Yilan%Zeng%NULL%1,             Hong%Chen%NULL%1,             Ru%Liu%NULL%1,             Qingfeng%Li%NULL%1,             Na%Zhang%NULL%1,             Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,              Yongzhen%Fan%NULL%2,              Ming%Chen%NULL%3,              Xiaoyan%Wu%NULL%3,              Lin%Zhang%NULL%3,              Tao%He%NULL%3,              Hairong%Wang%NULL%3,              Jing%Wan%NULL%2,              Xinghuan%Wang%NULL%0,              Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,              Yi%Xiang%NULL%0,              Wei%Fang%NULL%0,              Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,              Boqun%Li%279685211@qq.com%0,              Boqun%Li%279685211@qq.com%0,              Yanjun%Hu%huyanjun@163.com%0,              Chunhui%Lang%NULL%0,              Daoqiu%Huang%NULL%0,              Qiuyan%Sun%NULL%0,              Yan%Xiong%NULL%0,              Xia%Huang%NULL%0,              Jinglong%Lv%NULL%0,              Yaling%Luo%NULL%0,              Li%Shen%NULL%0,              Haoran%Yang%NULL%0,              Gu%Huang%NULL%0,              Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,              Lei%Tu%NULL%5,              Lei%Tu%NULL%0,              Pingjun%Zhu%NULL%4,              Pingjun%Zhu%NULL%0,              Mi%Mu%NULL%5,              Mi%Mu%NULL%0,              Runsheng%Wang%NULL%3,              Pengcheng%Yang%NULL%3,              Xi%Wang%NULL%2,              Chao%Hu%NULL%3,              Rongyu%Ping%NULL%3,              Peng%Hu%NULL%3,              Tianzhi%Li%NULL%3,              Feng%Cao%NULL%2,              Christopher%Chang%NULL%2,              Qinyong%Hu%NULL%3,              Yang%Jin%NULL%2,              Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,              Xiangjie%Li%NULL%1,              Mingquan%Chen%NULL%2,              Mingquan%Chen%NULL%0,              Yi%Feng%NULL%1,              Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%0,             Dong%Xiang%coreGivesNoEmail%0,             Gao%Ya-dong%coreGivesNoEmail%0,             Yan%You-qin%coreGivesNoEmail%0,             Yang%Yi-bin%coreGivesNoEmail%0,             Yuan%Ya-dong%coreGivesNoEmail%0,             Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,              Wenbo%He%NULL%3,              Xiaomei%Yu%NULL%3,              Dalong%Hu%NULL%3,              Mingwei%Bao%NULL%3,              Huafen%Liu%NULL%3,              Jiali%Zhou%NULL%3,              Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,             Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,             Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,             Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,             Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%0,              Xuan%Dong%NULL%0,              Jieming%Qu%NULL%0,              Fengyun%Gong%NULL%0,              Yang%Han%NULL%0,              Yang%Qiu%NULL%0,              Jingli%Wang%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,             Bettinardi%Alessandra%coreGivesNoEmail%0,             Bonetti%Graziella%coreGivesNoEmail%0,             Borrelli%Gianluca%coreGivesNoEmail%0,             Fiordalisi%Gianfranco%coreGivesNoEmail%0,             Lippi%Giuseppe%coreGivesNoEmail%0,             Manelli%Filippo%coreGivesNoEmail%0,             Marino%Antonio%coreGivesNoEmail%0,             Menolfi%Annamaria%coreGivesNoEmail%0,             Patroni%Andrea%coreGivesNoEmail%0,             Saggini%Sara%coreGivesNoEmail%0,             Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,              Linlin%Xie%NULL%1,              Rui%Liu%NULL%1,              Jie%Yang%NULL%2,              Fang%Liu%NULL%1,              Kailang%Wu%NULL%1,              Lang%Chen%NULL%1,              Wei%Hou%NULL%2,              Yong%Feng%yongfeng@whu.edu.cn%1,              Chengliang%Zhu%xinchengzhu@163.com%2,              Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,              Shaobo%Shi%NULL%2,              Shaobo%Shi%NULL%0,              Jiling%Zhu%NULL%1,              Jinzhi%Shi%NULL%1,              Kai%Dai%NULL%1,              Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,              Bo%Hu%NULL%2,              Yao%Zhang%NULL%1,              Hao%Wang%NULL%1,              Xiaoyang%Zhou%NULL%1,              Wei%Hu%NULL%1,              Yuting%Cheng%NULL%1,              Jie%Yan%NULL%0,              Haiqin%Ping%NULL%1,              Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,              Kwan Ho%Lee%NULL%2,              Kwan Ho%Lee%NULL%0,              Jin Hong%Chung%NULL%2,              Jin Hong%Chung%NULL%0,              Kyeong-Cheol%Shin%NULL%2,              Kyeong-Cheol%Shin%NULL%0,              Eun Young%Choi%NULL%2,              Eun Young%Choi%NULL%0,              Hyun Jung%Jin%NULL%2,              Hyun Jung%Jin%NULL%0,              Jong Geol%Jang%NULL%2,              Jong Geol%Jang%NULL%0,              Wonhwa%Lee%NULL%2,              Wonhwa%Lee%NULL%0,              June Hong%Ahn%NULL%2,              June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,              Hong%Xu%NULL%1,              Ming%Yang%NULL%0,              Yilan%Zeng%NULL%1,              Hong%Chen%NULL%1,              Ru%Liu%NULL%1,              Qingfeng%Li%NULL%1,              Na%Zhang%NULL%1,              Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1403,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1330,7 +1432,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1359,7 +1461,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1417,7 +1519,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1446,7 +1548,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1475,7 +1577,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1504,7 +1606,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1533,7 +1635,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1562,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1591,7 +1693,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1620,7 +1722,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1649,7 +1751,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1707,7 +1809,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -1736,7 +1838,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1765,7 +1867,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1794,7 +1896,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -1823,7 +1925,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="303">
   <si>
     <t>Doi</t>
   </si>
@@ -1053,6 +1053,57 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,              Hong%Xu%NULL%1,              Ming%Yang%NULL%0,              Yilan%Zeng%NULL%1,              Hong%Chen%NULL%1,              Ru%Liu%NULL%1,              Qingfeng%Li%NULL%1,              Na%Zhang%NULL%1,              Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,               Yongzhen%Fan%NULL%2,               Ming%Chen%NULL%3,               Xiaoyan%Wu%NULL%3,               Lin%Zhang%NULL%3,               Tao%He%NULL%3,               Hairong%Wang%NULL%3,               Jing%Wan%NULL%2,               Xinghuan%Wang%NULL%0,               Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,               Yi%Xiang%NULL%0,               Wei%Fang%NULL%0,               Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,               Boqun%Li%279685211@qq.com%0,               Boqun%Li%279685211@qq.com%0,               Yanjun%Hu%huyanjun@163.com%0,               Chunhui%Lang%NULL%0,               Daoqiu%Huang%NULL%0,               Qiuyan%Sun%NULL%0,               Yan%Xiong%NULL%0,               Xia%Huang%NULL%0,               Jinglong%Lv%NULL%0,               Yaling%Luo%NULL%0,               Li%Shen%NULL%0,               Haoran%Yang%NULL%0,               Gu%Huang%NULL%0,               Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,               Lei%Tu%NULL%5,               Lei%Tu%NULL%0,               Pingjun%Zhu%NULL%4,               Pingjun%Zhu%NULL%0,               Mi%Mu%NULL%5,               Mi%Mu%NULL%0,               Runsheng%Wang%NULL%3,               Pengcheng%Yang%NULL%3,               Xi%Wang%NULL%2,               Chao%Hu%NULL%3,               Rongyu%Ping%NULL%3,               Peng%Hu%NULL%3,               Tianzhi%Li%NULL%3,               Feng%Cao%NULL%2,               Christopher%Chang%NULL%2,               Qinyong%Hu%NULL%3,               Yang%Jin%NULL%2,               Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,               Xiangjie%Li%NULL%1,               Mingquan%Chen%NULL%2,               Mingquan%Chen%NULL%0,               Yi%Feng%NULL%1,               Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%0,              Dong%Xiang%coreGivesNoEmail%0,              Gao%Ya-dong%coreGivesNoEmail%0,              Yan%You-qin%coreGivesNoEmail%0,              Yang%Yi-bin%coreGivesNoEmail%0,              Yuan%Ya-dong%coreGivesNoEmail%0,              Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,               Wenbo%He%NULL%3,               Xiaomei%Yu%NULL%3,               Dalong%Hu%NULL%3,               Mingwei%Bao%NULL%3,               Huafen%Liu%NULL%3,               Jiali%Zhou%NULL%3,               Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,              Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,              Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,              Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,              Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%0,               Xuan%Dong%NULL%0,               Jieming%Qu%NULL%0,               Fengyun%Gong%NULL%0,               Yang%Han%NULL%0,               Yang%Qiu%NULL%0,               Jingli%Wang%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,              Bettinardi%Alessandra%coreGivesNoEmail%0,              Bonetti%Graziella%coreGivesNoEmail%0,              Borrelli%Gianluca%coreGivesNoEmail%0,              Fiordalisi%Gianfranco%coreGivesNoEmail%0,              Lippi%Giuseppe%coreGivesNoEmail%0,              Manelli%Filippo%coreGivesNoEmail%0,              Marino%Antonio%coreGivesNoEmail%0,              Menolfi%Annamaria%coreGivesNoEmail%0,              Patroni%Andrea%coreGivesNoEmail%0,              Saggini%Sara%coreGivesNoEmail%0,              Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,               Linlin%Xie%NULL%1,               Rui%Liu%NULL%1,               Jie%Yang%NULL%2,               Fang%Liu%NULL%1,               Kailang%Wu%NULL%1,               Lang%Chen%NULL%1,               Wei%Hou%NULL%2,               Yong%Feng%yongfeng@whu.edu.cn%1,               Chengliang%Zhu%xinchengzhu@163.com%2,               Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,               Shaobo%Shi%NULL%2,               Shaobo%Shi%NULL%0,               Jiling%Zhu%NULL%1,               Jinzhi%Shi%NULL%1,               Kai%Dai%NULL%1,               Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,               Bo%Hu%NULL%2,               Yao%Zhang%NULL%1,               Hao%Wang%NULL%1,               Xiaoyang%Zhou%NULL%1,               Wei%Hu%NULL%1,               Yuting%Cheng%NULL%1,               Jie%Yan%NULL%0,               Haiqin%Ping%NULL%1,               Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,               Kwan Ho%Lee%NULL%2,               Kwan Ho%Lee%NULL%0,               Jin Hong%Chung%NULL%2,               Jin Hong%Chung%NULL%0,               Kyeong-Cheol%Shin%NULL%2,               Kyeong-Cheol%Shin%NULL%0,               Eun Young%Choi%NULL%2,               Eun Young%Choi%NULL%0,               Hyun Jung%Jin%NULL%2,               Hyun Jung%Jin%NULL%0,               Jong Geol%Jang%NULL%2,               Jong Geol%Jang%NULL%0,               Wonhwa%Lee%NULL%2,               Wonhwa%Lee%NULL%0,               June Hong%Ahn%NULL%2,               June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,               Hong%Xu%NULL%1,               Ming%Yang%NULL%0,               Yilan%Zeng%NULL%1,               Hong%Chen%NULL%1,               Ru%Liu%NULL%1,               Qingfeng%Li%NULL%1,               Na%Zhang%NULL%1,               Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1454,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1432,7 +1483,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1461,7 +1512,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1519,7 +1570,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1548,7 +1599,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1577,7 +1628,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1606,7 +1657,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1635,7 +1686,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1664,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1693,7 +1744,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1722,7 +1773,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1751,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1809,7 +1860,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -1838,7 +1889,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1867,7 +1918,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1896,7 +1947,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -1925,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="320">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,6 +1104,57 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,               Hong%Xu%NULL%1,               Ming%Yang%NULL%0,               Yilan%Zeng%NULL%1,               Hong%Chen%NULL%1,               Ru%Liu%NULL%1,               Qingfeng%Li%NULL%1,               Na%Zhang%NULL%1,               Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                Yongzhen%Fan%NULL%2,                Ming%Chen%NULL%3,                Xiaoyan%Wu%NULL%3,                Lin%Zhang%NULL%3,                Tao%He%NULL%3,                Hairong%Wang%NULL%3,                Jing%Wan%NULL%2,                Xinghuan%Wang%NULL%0,                Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                Yi%Xiang%NULL%0,                Wei%Fang%NULL%0,                Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                Boqun%Li%279685211@qq.com%0,                Boqun%Li%279685211@qq.com%0,                Yanjun%Hu%huyanjun@163.com%0,                Chunhui%Lang%NULL%0,                Daoqiu%Huang%NULL%0,                Qiuyan%Sun%NULL%0,                Yan%Xiong%NULL%0,                Xia%Huang%NULL%0,                Jinglong%Lv%NULL%0,                Yaling%Luo%NULL%0,                Li%Shen%NULL%0,                Haoran%Yang%NULL%0,                Gu%Huang%NULL%0,                Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                Lei%Tu%NULL%5,                Lei%Tu%NULL%0,                Pingjun%Zhu%NULL%4,                Pingjun%Zhu%NULL%0,                Mi%Mu%NULL%5,                Mi%Mu%NULL%0,                Runsheng%Wang%NULL%3,                Pengcheng%Yang%NULL%3,                Xi%Wang%NULL%2,                Chao%Hu%NULL%3,                Rongyu%Ping%NULL%3,                Peng%Hu%NULL%3,                Tianzhi%Li%NULL%3,                Feng%Cao%NULL%2,                Christopher%Chang%NULL%2,                Qinyong%Hu%NULL%3,                Yang%Jin%NULL%2,                Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                Xiangjie%Li%NULL%1,                Mingquan%Chen%NULL%2,                Mingquan%Chen%NULL%0,                Yi%Feng%NULL%1,                Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%0,               Dong%Xiang%coreGivesNoEmail%0,               Gao%Ya-dong%coreGivesNoEmail%0,               Yan%You-qin%coreGivesNoEmail%0,               Yang%Yi-bin%coreGivesNoEmail%0,               Yuan%Ya-dong%coreGivesNoEmail%0,               Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                Wenbo%He%NULL%3,                Xiaomei%Yu%NULL%3,                Dalong%Hu%NULL%3,                Mingwei%Bao%NULL%3,                Huafen%Liu%NULL%3,                Jiali%Zhou%NULL%3,                Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,               Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,               Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,               Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,               Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%0,                Xuan%Dong%NULL%0,                Jieming%Qu%NULL%0,                Fengyun%Gong%NULL%0,                Yang%Han%NULL%0,                Yang%Qiu%NULL%0,                Jingli%Wang%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,               Bettinardi%Alessandra%coreGivesNoEmail%0,               Bonetti%Graziella%coreGivesNoEmail%0,               Borrelli%Gianluca%coreGivesNoEmail%0,               Fiordalisi%Gianfranco%coreGivesNoEmail%0,               Lippi%Giuseppe%coreGivesNoEmail%0,               Manelli%Filippo%coreGivesNoEmail%0,               Marino%Antonio%coreGivesNoEmail%0,               Menolfi%Annamaria%coreGivesNoEmail%0,               Patroni%Andrea%coreGivesNoEmail%0,               Saggini%Sara%coreGivesNoEmail%0,               Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                Linlin%Xie%NULL%1,                Rui%Liu%NULL%1,                Jie%Yang%NULL%2,                Fang%Liu%NULL%1,                Kailang%Wu%NULL%1,                Lang%Chen%NULL%1,                Wei%Hou%NULL%2,                Yong%Feng%yongfeng@whu.edu.cn%1,                Chengliang%Zhu%xinchengzhu@163.com%2,                Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                Shaobo%Shi%NULL%2,                Shaobo%Shi%NULL%0,                Jiling%Zhu%NULL%1,                Jinzhi%Shi%NULL%1,                Kai%Dai%NULL%1,                Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                Bo%Hu%NULL%2,                Yao%Zhang%NULL%1,                Hao%Wang%NULL%1,                Xiaoyang%Zhou%NULL%1,                Wei%Hu%NULL%1,                Yuting%Cheng%NULL%1,                Jie%Yan%NULL%0,                Haiqin%Ping%NULL%1,                Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                Kwan Ho%Lee%NULL%2,                Kwan Ho%Lee%NULL%0,                Jin Hong%Chung%NULL%2,                Jin Hong%Chung%NULL%0,                Kyeong-Cheol%Shin%NULL%2,                Kyeong-Cheol%Shin%NULL%0,                Eun Young%Choi%NULL%2,                Eun Young%Choi%NULL%0,                Hyun Jung%Jin%NULL%2,                Hyun Jung%Jin%NULL%0,                Jong Geol%Jang%NULL%2,                Jong Geol%Jang%NULL%0,                Wonhwa%Lee%NULL%2,                Wonhwa%Lee%NULL%0,                June Hong%Ahn%NULL%2,                June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                Hong%Xu%NULL%1,                Ming%Yang%NULL%0,                Yilan%Zeng%NULL%1,                Hong%Chen%NULL%1,                Ru%Liu%NULL%1,                Qingfeng%Li%NULL%1,                Na%Zhang%NULL%1,                Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1505,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1483,7 +1534,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1512,7 +1563,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1570,7 +1621,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1599,7 +1650,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1628,7 +1679,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1657,7 +1708,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1686,7 +1737,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1715,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1744,7 +1795,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1773,7 +1824,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1802,7 +1853,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1860,7 +1911,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -1889,7 +1940,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1918,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1947,7 +1998,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -1976,7 +2027,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="354">
   <si>
     <t>Doi</t>
   </si>
@@ -1155,6 +1155,108 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                Hong%Xu%NULL%1,                Ming%Yang%NULL%0,                Yilan%Zeng%NULL%1,                Hong%Chen%NULL%1,                Ru%Liu%NULL%1,                Qingfeng%Li%NULL%1,                Na%Zhang%NULL%1,                Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                 Yongzhen%Fan%NULL%2,                 Ming%Chen%NULL%3,                 Xiaoyan%Wu%NULL%3,                 Lin%Zhang%NULL%3,                 Tao%He%NULL%3,                 Hairong%Wang%NULL%3,                 Jing%Wan%NULL%2,                 Xinghuan%Wang%NULL%0,                 Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                 Yi%Xiang%NULL%0,                 Wei%Fang%NULL%0,                 Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                 Boqun%Li%279685211@qq.com%0,                 Boqun%Li%279685211@qq.com%0,                 Yanjun%Hu%huyanjun@163.com%0,                 Chunhui%Lang%NULL%0,                 Daoqiu%Huang%NULL%0,                 Qiuyan%Sun%NULL%0,                 Yan%Xiong%NULL%0,                 Xia%Huang%NULL%0,                 Jinglong%Lv%NULL%0,                 Yaling%Luo%NULL%0,                 Li%Shen%NULL%0,                 Haoran%Yang%NULL%0,                 Gu%Huang%NULL%0,                 Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                 Lei%Tu%NULL%5,                 Lei%Tu%NULL%0,                 Pingjun%Zhu%NULL%4,                 Pingjun%Zhu%NULL%0,                 Mi%Mu%NULL%5,                 Mi%Mu%NULL%0,                 Runsheng%Wang%NULL%3,                 Pengcheng%Yang%NULL%3,                 Xi%Wang%NULL%2,                 Chao%Hu%NULL%3,                 Rongyu%Ping%NULL%3,                 Peng%Hu%NULL%3,                 Tianzhi%Li%NULL%3,                 Feng%Cao%NULL%2,                 Christopher%Chang%NULL%2,                 Qinyong%Hu%NULL%3,                 Yang%Jin%NULL%2,                 Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                 Xiangjie%Li%NULL%1,                 Mingquan%Chen%NULL%2,                 Mingquan%Chen%NULL%0,                 Yi%Feng%NULL%1,                 Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%0,                Dong%Xiang%coreGivesNoEmail%0,                Gao%Ya-dong%coreGivesNoEmail%0,                Yan%You-qin%coreGivesNoEmail%0,                Yang%Yi-bin%coreGivesNoEmail%0,                Yuan%Ya-dong%coreGivesNoEmail%0,                Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                 Wenbo%He%NULL%3,                 Xiaomei%Yu%NULL%3,                 Dalong%Hu%NULL%3,                 Mingwei%Bao%NULL%3,                 Huafen%Liu%NULL%3,                 Jiali%Zhou%NULL%3,                 Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%0,                 Xuan%Dong%NULL%0,                 Jieming%Qu%NULL%0,                 Fengyun%Gong%NULL%0,                 Yang%Han%NULL%0,                 Yang%Qiu%NULL%0,                 Jingli%Wang%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                Bettinardi%Alessandra%coreGivesNoEmail%0,                Bonetti%Graziella%coreGivesNoEmail%0,                Borrelli%Gianluca%coreGivesNoEmail%0,                Fiordalisi%Gianfranco%coreGivesNoEmail%0,                Lippi%Giuseppe%coreGivesNoEmail%0,                Manelli%Filippo%coreGivesNoEmail%0,                Marino%Antonio%coreGivesNoEmail%0,                Menolfi%Annamaria%coreGivesNoEmail%0,                Patroni%Andrea%coreGivesNoEmail%0,                Saggini%Sara%coreGivesNoEmail%0,                Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                 Linlin%Xie%NULL%1,                 Rui%Liu%NULL%1,                 Jie%Yang%NULL%2,                 Fang%Liu%NULL%1,                 Kailang%Wu%NULL%1,                 Lang%Chen%NULL%1,                 Wei%Hou%NULL%2,                 Yong%Feng%yongfeng@whu.edu.cn%1,                 Chengliang%Zhu%xinchengzhu@163.com%2,                 Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                 Shaobo%Shi%NULL%2,                 Shaobo%Shi%NULL%0,                 Jiling%Zhu%NULL%1,                 Jinzhi%Shi%NULL%1,                 Kai%Dai%NULL%1,                 Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                 Bo%Hu%NULL%2,                 Yao%Zhang%NULL%1,                 Hao%Wang%NULL%1,                 Xiaoyang%Zhou%NULL%1,                 Wei%Hu%NULL%1,                 Yuting%Cheng%NULL%1,                 Jie%Yan%NULL%0,                 Haiqin%Ping%NULL%1,                 Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                 Kwan Ho%Lee%NULL%2,                 Kwan Ho%Lee%NULL%0,                 Jin Hong%Chung%NULL%2,                 Jin Hong%Chung%NULL%0,                 Kyeong-Cheol%Shin%NULL%2,                 Kyeong-Cheol%Shin%NULL%0,                 Eun Young%Choi%NULL%2,                 Eun Young%Choi%NULL%0,                 Hyun Jung%Jin%NULL%2,                 Hyun Jung%Jin%NULL%0,                 Jong Geol%Jang%NULL%2,                 Jong Geol%Jang%NULL%0,                 Wonhwa%Lee%NULL%2,                 Wonhwa%Lee%NULL%0,                 June Hong%Ahn%NULL%2,                 June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                 Hong%Xu%NULL%1,                 Ming%Yang%NULL%0,                 Yilan%Zeng%NULL%1,                 Hong%Chen%NULL%1,                 Ru%Liu%NULL%1,                 Qingfeng%Li%NULL%1,                 Na%Zhang%NULL%1,                 Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                  Yongzhen%Fan%NULL%2,                  Ming%Chen%NULL%3,                  Xiaoyan%Wu%NULL%3,                  Lin%Zhang%NULL%3,                  Tao%He%NULL%3,                  Hairong%Wang%NULL%3,                  Jing%Wan%NULL%2,                  Xinghuan%Wang%NULL%0,                  Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                  Yi%Xiang%NULL%0,                  Wei%Fang%NULL%0,                  Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                  Boqun%Li%279685211@qq.com%0,                  Boqun%Li%279685211@qq.com%0,                  Yanjun%Hu%huyanjun@163.com%0,                  Chunhui%Lang%NULL%0,                  Daoqiu%Huang%NULL%0,                  Qiuyan%Sun%NULL%0,                  Yan%Xiong%NULL%0,                  Xia%Huang%NULL%0,                  Jinglong%Lv%NULL%0,                  Yaling%Luo%NULL%0,                  Li%Shen%NULL%0,                  Haoran%Yang%NULL%0,                  Gu%Huang%NULL%0,                  Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                  Lei%Tu%NULL%5,                  Lei%Tu%NULL%0,                  Pingjun%Zhu%NULL%4,                  Pingjun%Zhu%NULL%0,                  Mi%Mu%NULL%5,                  Mi%Mu%NULL%0,                  Runsheng%Wang%NULL%3,                  Pengcheng%Yang%NULL%3,                  Xi%Wang%NULL%2,                  Chao%Hu%NULL%3,                  Rongyu%Ping%NULL%3,                  Peng%Hu%NULL%3,                  Tianzhi%Li%NULL%3,                  Feng%Cao%NULL%2,                  Christopher%Chang%NULL%2,                  Qinyong%Hu%NULL%3,                  Yang%Jin%NULL%2,                  Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                  Xiangjie%Li%NULL%1,                  Mingquan%Chen%NULL%2,                  Mingquan%Chen%NULL%0,                  Yi%Feng%NULL%1,                  Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%0,                 Dong%Xiang%coreGivesNoEmail%0,                 Gao%Ya-dong%coreGivesNoEmail%0,                 Yan%You-qin%coreGivesNoEmail%0,                 Yang%Yi-bin%coreGivesNoEmail%0,                 Yuan%Ya-dong%coreGivesNoEmail%0,                 Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                  Wenbo%He%NULL%3,                  Xiaomei%Yu%NULL%3,                  Dalong%Hu%NULL%3,                  Mingwei%Bao%NULL%3,                  Huafen%Liu%NULL%3,                  Jiali%Zhou%NULL%3,                  Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                 Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                 Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                 Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                 Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%0,                  Xuan%Dong%NULL%0,                  Jieming%Qu%NULL%0,                  Fengyun%Gong%NULL%0,                  Yang%Han%NULL%0,                  Yang%Qiu%NULL%0,                  Jingli%Wang%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                 Bettinardi%Alessandra%coreGivesNoEmail%0,                 Bonetti%Graziella%coreGivesNoEmail%0,                 Borrelli%Gianluca%coreGivesNoEmail%0,                 Fiordalisi%Gianfranco%coreGivesNoEmail%0,                 Lippi%Giuseppe%coreGivesNoEmail%0,                 Manelli%Filippo%coreGivesNoEmail%0,                 Marino%Antonio%coreGivesNoEmail%0,                 Menolfi%Annamaria%coreGivesNoEmail%0,                 Patroni%Andrea%coreGivesNoEmail%0,                 Saggini%Sara%coreGivesNoEmail%0,                 Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                  Linlin%Xie%NULL%1,                  Rui%Liu%NULL%1,                  Jie%Yang%NULL%2,                  Fang%Liu%NULL%1,                  Kailang%Wu%NULL%1,                  Lang%Chen%NULL%1,                  Wei%Hou%NULL%2,                  Yong%Feng%yongfeng@whu.edu.cn%1,                  Chengliang%Zhu%xinchengzhu@163.com%2,                  Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                  Shaobo%Shi%NULL%2,                  Shaobo%Shi%NULL%0,                  Jiling%Zhu%NULL%1,                  Jinzhi%Shi%NULL%1,                  Kai%Dai%NULL%1,                  Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                  Bo%Hu%NULL%2,                  Yao%Zhang%NULL%1,                  Hao%Wang%NULL%1,                  Xiaoyang%Zhou%NULL%1,                  Wei%Hu%NULL%1,                  Yuting%Cheng%NULL%1,                  Jie%Yan%NULL%0,                  Haiqin%Ping%NULL%1,                  Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                  Kwan Ho%Lee%NULL%2,                  Kwan Ho%Lee%NULL%0,                  Jin Hong%Chung%NULL%2,                  Jin Hong%Chung%NULL%0,                  Kyeong-Cheol%Shin%NULL%2,                  Kyeong-Cheol%Shin%NULL%0,                  Eun Young%Choi%NULL%2,                  Eun Young%Choi%NULL%0,                  Hyun Jung%Jin%NULL%2,                  Hyun Jung%Jin%NULL%0,                  Jong Geol%Jang%NULL%2,                  Jong Geol%Jang%NULL%0,                  Wonhwa%Lee%NULL%2,                  Wonhwa%Lee%NULL%0,                  June Hong%Ahn%NULL%2,                  June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                  Hong%Xu%NULL%1,                  Ming%Yang%NULL%0,                  Yilan%Zeng%NULL%1,                  Hong%Chen%NULL%1,                  Ru%Liu%NULL%1,                  Qingfeng%Li%NULL%1,                  Na%Zhang%NULL%1,                  Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1607,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1534,7 +1636,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1563,7 +1665,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1621,7 +1723,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1650,7 +1752,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1679,7 +1781,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1708,7 +1810,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1737,7 +1839,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1766,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1795,7 +1897,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1824,7 +1926,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1853,7 +1955,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1911,7 +2013,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -1940,7 +2042,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -1969,7 +2071,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -1998,7 +2100,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2027,7 +2129,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="371">
   <si>
     <t>Doi</t>
   </si>
@@ -1257,6 +1257,57 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                  Hong%Xu%NULL%1,                  Ming%Yang%NULL%0,                  Yilan%Zeng%NULL%1,                  Hong%Chen%NULL%1,                  Ru%Liu%NULL%1,                  Qingfeng%Li%NULL%1,                  Na%Zhang%NULL%1,                  Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                   Yongzhen%Fan%NULL%2,                   Ming%Chen%NULL%3,                   Xiaoyan%Wu%NULL%3,                   Lin%Zhang%NULL%3,                   Tao%He%NULL%3,                   Hairong%Wang%NULL%3,                   Jing%Wan%NULL%2,                   Xinghuan%Wang%NULL%0,                   Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                   Yi%Xiang%NULL%0,                   Wei%Fang%NULL%0,                   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                   Boqun%Li%279685211@qq.com%0,                   Boqun%Li%279685211@qq.com%0,                   Yanjun%Hu%huyanjun@163.com%0,                   Chunhui%Lang%NULL%0,                   Daoqiu%Huang%NULL%0,                   Qiuyan%Sun%NULL%0,                   Yan%Xiong%NULL%0,                   Xia%Huang%NULL%0,                   Jinglong%Lv%NULL%0,                   Yaling%Luo%NULL%0,                   Li%Shen%NULL%0,                   Haoran%Yang%NULL%0,                   Gu%Huang%NULL%0,                   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                   Lei%Tu%NULL%5,                   Lei%Tu%NULL%0,                   Pingjun%Zhu%NULL%4,                   Pingjun%Zhu%NULL%0,                   Mi%Mu%NULL%5,                   Mi%Mu%NULL%0,                   Runsheng%Wang%NULL%3,                   Pengcheng%Yang%NULL%3,                   Xi%Wang%NULL%2,                   Chao%Hu%NULL%3,                   Rongyu%Ping%NULL%3,                   Peng%Hu%NULL%3,                   Tianzhi%Li%NULL%3,                   Feng%Cao%NULL%2,                   Christopher%Chang%NULL%2,                   Qinyong%Hu%NULL%3,                   Yang%Jin%NULL%2,                   Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                   Xiangjie%Li%NULL%1,                   Mingquan%Chen%NULL%2,                   Mingquan%Chen%NULL%0,                   Yi%Feng%NULL%1,                   Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%0,                  Dong%Xiang%coreGivesNoEmail%0,                  Gao%Ya-dong%coreGivesNoEmail%0,                  Yan%You-qin%coreGivesNoEmail%0,                  Yang%Yi-bin%coreGivesNoEmail%0,                  Yuan%Ya-dong%coreGivesNoEmail%0,                  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                   Wenbo%He%NULL%3,                   Xiaomei%Yu%NULL%3,                   Dalong%Hu%NULL%3,                   Mingwei%Bao%NULL%3,                   Huafen%Liu%NULL%3,                   Jiali%Zhou%NULL%3,                   Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%0,                   Xuan%Dong%NULL%0,                   Jieming%Qu%NULL%0,                   Fengyun%Gong%NULL%0,                   Yang%Han%NULL%0,                   Yang%Qiu%NULL%0,                   Jingli%Wang%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                  Bettinardi%Alessandra%coreGivesNoEmail%0,                  Bonetti%Graziella%coreGivesNoEmail%0,                  Borrelli%Gianluca%coreGivesNoEmail%0,                  Fiordalisi%Gianfranco%coreGivesNoEmail%0,                  Lippi%Giuseppe%coreGivesNoEmail%0,                  Manelli%Filippo%coreGivesNoEmail%0,                  Marino%Antonio%coreGivesNoEmail%0,                  Menolfi%Annamaria%coreGivesNoEmail%0,                  Patroni%Andrea%coreGivesNoEmail%0,                  Saggini%Sara%coreGivesNoEmail%0,                  Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                   Linlin%Xie%NULL%1,                   Rui%Liu%NULL%1,                   Jie%Yang%NULL%2,                   Fang%Liu%NULL%1,                   Kailang%Wu%NULL%1,                   Lang%Chen%NULL%1,                   Wei%Hou%NULL%2,                   Yong%Feng%yongfeng@whu.edu.cn%1,                   Chengliang%Zhu%xinchengzhu@163.com%2,                   Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%3,                   Shaobo%Shi%NULL%2,                   Shaobo%Shi%NULL%0,                   Jiling%Zhu%NULL%1,                   Jinzhi%Shi%NULL%1,                   Kai%Dai%NULL%1,                   Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                   Bo%Hu%NULL%2,                   Yao%Zhang%NULL%1,                   Hao%Wang%NULL%1,                   Xiaoyang%Zhou%NULL%1,                   Wei%Hu%NULL%1,                   Yuting%Cheng%NULL%1,                   Jie%Yan%NULL%0,                   Haiqin%Ping%NULL%1,                   Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                   Kwan Ho%Lee%NULL%2,                   Kwan Ho%Lee%NULL%0,                   Jin Hong%Chung%NULL%2,                   Jin Hong%Chung%NULL%0,                   Kyeong-Cheol%Shin%NULL%2,                   Kyeong-Cheol%Shin%NULL%0,                   Eun Young%Choi%NULL%2,                   Eun Young%Choi%NULL%0,                   Hyun Jung%Jin%NULL%2,                   Hyun Jung%Jin%NULL%0,                   Jong Geol%Jang%NULL%2,                   Jong Geol%Jang%NULL%0,                   Wonhwa%Lee%NULL%2,                   Wonhwa%Lee%NULL%0,                   June Hong%Ahn%NULL%2,                   June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                   Hong%Xu%NULL%1,                   Ming%Yang%NULL%0,                   Yilan%Zeng%NULL%1,                   Hong%Chen%NULL%1,                   Ru%Liu%NULL%1,                   Qingfeng%Li%NULL%1,                   Na%Zhang%NULL%1,                   Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1658,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1636,7 +1687,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1665,7 +1716,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1723,7 +1774,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1752,7 +1803,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1781,7 +1832,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1810,7 +1861,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1839,7 +1890,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1868,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1897,7 +1948,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1926,7 +1977,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1955,7 +2006,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2013,7 +2064,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -2042,7 +2093,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -2071,7 +2122,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -2100,7 +2151,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2129,7 +2180,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="391">
   <si>
     <t>Doi</t>
   </si>
@@ -1308,6 +1308,66 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                   Hong%Xu%NULL%1,                   Ming%Yang%NULL%0,                   Yilan%Zeng%NULL%1,                   Hong%Chen%NULL%1,                   Ru%Liu%NULL%1,                   Qingfeng%Li%NULL%1,                   Na%Zhang%NULL%1,                   Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                    Yongzhen%Fan%NULL%2,                    Ming%Chen%NULL%3,                    Xiaoyan%Wu%NULL%3,                    Lin%Zhang%NULL%3,                    Tao%He%NULL%3,                    Hairong%Wang%NULL%3,                    Jing%Wan%NULL%2,                    Xinghuan%Wang%NULL%0,                    Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                    Yi%Xiang%NULL%0,                    Wei%Fang%NULL%0,                    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                    Boqun%Li%279685211@qq.com%0,                    Boqun%Li%279685211@qq.com%0,                    Yanjun%Hu%huyanjun@163.com%0,                    Chunhui%Lang%NULL%0,                    Daoqiu%Huang%NULL%0,                    Qiuyan%Sun%NULL%0,                    Yan%Xiong%NULL%0,                    Xia%Huang%NULL%0,                    Jinglong%Lv%NULL%0,                    Yaling%Luo%NULL%0,                    Li%Shen%NULL%0,                    Haoran%Yang%NULL%0,                    Gu%Huang%NULL%0,                    Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                    Lei%Tu%NULL%5,                    Lei%Tu%NULL%0,                    Pingjun%Zhu%NULL%4,                    Pingjun%Zhu%NULL%0,                    Mi%Mu%NULL%5,                    Mi%Mu%NULL%0,                    Runsheng%Wang%NULL%3,                    Pengcheng%Yang%NULL%3,                    Xi%Wang%NULL%2,                    Chao%Hu%NULL%3,                    Rongyu%Ping%NULL%3,                    Peng%Hu%NULL%3,                    Tianzhi%Li%NULL%3,                    Feng%Cao%NULL%2,                    Christopher%Chang%NULL%2,                    Qinyong%Hu%NULL%3,                    Yang%Jin%NULL%2,                    Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                    Xiangjie%Li%NULL%1,                    Mingquan%Chen%NULL%2,                    Mingquan%Chen%NULL%0,                    Yi%Feng%NULL%1,                    Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%0,                   Dong%Xiang%coreGivesNoEmail%0,                   Gao%Ya-dong%coreGivesNoEmail%0,                   Yan%You-qin%coreGivesNoEmail%0,                   Yang%Yi-bin%coreGivesNoEmail%0,                   Yuan%Ya-dong%coreGivesNoEmail%0,                   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                    Wenbo%He%NULL%3,                    Xiaomei%Yu%NULL%3,                    Dalong%Hu%NULL%3,                    Mingwei%Bao%NULL%3,                    Huafen%Liu%NULL%3,                    Jiali%Zhou%NULL%3,                    Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%5,                    Xuan%Dong%NULL%5,                    Jieming%Qu%NULL%8,                    Fengyun%Gong%NULL%5,                    Yang%Han%NULL%4,                    Yang%Qiu%NULL%4,                    Jingli%Wang%NULL%5,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%4,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                   Bettinardi%Alessandra%coreGivesNoEmail%0,                   Bonetti%Graziella%coreGivesNoEmail%0,                   Borrelli%Gianluca%coreGivesNoEmail%0,                   Fiordalisi%Gianfranco%coreGivesNoEmail%0,                   Lippi%Giuseppe%coreGivesNoEmail%0,                   Manelli%Filippo%coreGivesNoEmail%0,                   Marino%Antonio%coreGivesNoEmail%0,                   Menolfi%Annamaria%coreGivesNoEmail%0,                   Patroni%Andrea%coreGivesNoEmail%0,                   Saggini%Sara%coreGivesNoEmail%0,                   Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                    Linlin%Xie%NULL%1,                    Rui%Liu%NULL%1,                    Jie%Yang%NULL%2,                    Fang%Liu%NULL%1,                    Kailang%Wu%NULL%1,                    Lang%Chen%NULL%1,                    Wei%Hou%NULL%2,                    Yong%Feng%yongfeng@whu.edu.cn%1,                    Chengliang%Zhu%xinchengzhu@163.com%2,                    Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                    Shaobo%Shi%NULL%2,                    Shaobo%Shi%NULL%0,                    Jiling%Zhu%NULL%1,                    Jinzhi%Shi%NULL%1,                    Kai%Dai%NULL%1,                    Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                    Bo%Hu%NULL%2,                    Yao%Zhang%NULL%1,                    Hao%Wang%NULL%1,                    Xiaoyang%Zhou%NULL%1,                    Wei%Hu%NULL%1,                    Yuting%Cheng%NULL%1,                    Jie%Yan%NULL%0,                    Haiqin%Ping%NULL%1,                    Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                    Kwan Ho%Lee%NULL%2,                    Kwan Ho%Lee%NULL%0,                    Jin Hong%Chung%NULL%2,                    Jin Hong%Chung%NULL%0,                    Kyeong-Cheol%Shin%NULL%2,                    Kyeong-Cheol%Shin%NULL%0,                    Eun Young%Choi%NULL%2,                    Eun Young%Choi%NULL%0,                    Hyun Jung%Jin%NULL%2,                    Hyun Jung%Jin%NULL%0,                    Jong Geol%Jang%NULL%2,                    Jong Geol%Jang%NULL%0,                    Wonhwa%Lee%NULL%2,                    Wonhwa%Lee%NULL%0,                    June Hong%Ahn%NULL%2,                    June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                    Hong%Xu%NULL%1,                    Ming%Yang%NULL%0,                    Yilan%Zeng%NULL%1,                    Hong%Chen%NULL%1,                    Ru%Liu%NULL%1,                    Qingfeng%Li%NULL%1,                    Na%Zhang%NULL%1,                    Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1718,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1670,7 +1730,7 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1687,7 +1747,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1699,7 +1759,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1716,7 +1776,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1728,7 +1788,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1757,7 +1817,7 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1774,7 +1834,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1786,7 +1846,7 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1803,7 +1863,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1815,7 +1875,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1832,7 +1892,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1844,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1861,7 +1921,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1873,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1890,7 +1950,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1902,7 +1962,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1919,7 +1979,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1931,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1948,7 +2008,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -1960,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1977,7 +2037,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1989,7 +2049,7 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2006,7 +2066,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2018,7 +2078,7 @@
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2064,7 +2124,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -2076,7 +2136,7 @@
         <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2093,7 +2153,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -2105,7 +2165,7 @@
         <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -2134,7 +2194,7 @@
         <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2151,7 +2211,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2163,7 +2223,7 @@
         <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2180,7 +2240,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -2192,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="408">
   <si>
     <t>Doi</t>
   </si>
@@ -1368,6 +1368,57 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                    Hong%Xu%NULL%1,                    Ming%Yang%NULL%0,                    Yilan%Zeng%NULL%1,                    Hong%Chen%NULL%1,                    Ru%Liu%NULL%1,                    Qingfeng%Li%NULL%1,                    Na%Zhang%NULL%1,                    Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                     Yongzhen%Fan%NULL%2,                     Ming%Chen%NULL%3,                     Xiaoyan%Wu%NULL%3,                     Lin%Zhang%NULL%3,                     Tao%He%NULL%3,                     Hairong%Wang%NULL%3,                     Jing%Wan%NULL%2,                     Xinghuan%Wang%NULL%0,                     Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                     Yi%Xiang%NULL%0,                     Wei%Fang%NULL%0,                     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                     Boqun%Li%279685211@qq.com%0,                     Boqun%Li%279685211@qq.com%0,                     Yanjun%Hu%huyanjun@163.com%0,                     Chunhui%Lang%NULL%0,                     Daoqiu%Huang%NULL%0,                     Qiuyan%Sun%NULL%0,                     Yan%Xiong%NULL%0,                     Xia%Huang%NULL%0,                     Jinglong%Lv%NULL%0,                     Yaling%Luo%NULL%0,                     Li%Shen%NULL%0,                     Haoran%Yang%NULL%0,                     Gu%Huang%NULL%0,                     Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                     Lei%Tu%NULL%5,                     Lei%Tu%NULL%0,                     Pingjun%Zhu%NULL%4,                     Pingjun%Zhu%NULL%0,                     Mi%Mu%NULL%5,                     Mi%Mu%NULL%0,                     Runsheng%Wang%NULL%3,                     Pengcheng%Yang%NULL%3,                     Xi%Wang%NULL%2,                     Chao%Hu%NULL%3,                     Rongyu%Ping%NULL%3,                     Peng%Hu%NULL%3,                     Tianzhi%Li%NULL%3,                     Feng%Cao%NULL%2,                     Christopher%Chang%NULL%2,                     Qinyong%Hu%NULL%3,                     Yang%Jin%NULL%2,                     Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                     Xiangjie%Li%NULL%1,                     Mingquan%Chen%NULL%2,                     Mingquan%Chen%NULL%0,                     Yi%Feng%NULL%1,                     Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%0,                    Dong%Xiang%coreGivesNoEmail%0,                    Gao%Ya-dong%coreGivesNoEmail%0,                    Yan%You-qin%coreGivesNoEmail%0,                    Yang%Yi-bin%coreGivesNoEmail%0,                    Yuan%Ya-dong%coreGivesNoEmail%0,                    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                     Wenbo%He%NULL%3,                     Xiaomei%Yu%NULL%3,                     Dalong%Hu%NULL%3,                     Mingwei%Bao%NULL%3,                     Huafen%Liu%NULL%3,                     Jiali%Zhou%NULL%3,                     Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%5,                     Xuan%Dong%NULL%5,                     Jieming%Qu%NULL%8,                     Fengyun%Gong%NULL%5,                     Yang%Han%NULL%4,                     Yang%Qiu%NULL%4,                     Jingli%Wang%NULL%5,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%4,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                    Bettinardi%Alessandra%coreGivesNoEmail%0,                    Bonetti%Graziella%coreGivesNoEmail%0,                    Borrelli%Gianluca%coreGivesNoEmail%0,                    Fiordalisi%Gianfranco%coreGivesNoEmail%0,                    Lippi%Giuseppe%coreGivesNoEmail%0,                    Manelli%Filippo%coreGivesNoEmail%0,                    Marino%Antonio%coreGivesNoEmail%0,                    Menolfi%Annamaria%coreGivesNoEmail%0,                    Patroni%Andrea%coreGivesNoEmail%0,                    Saggini%Sara%coreGivesNoEmail%0,                    Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                     Linlin%Xie%NULL%1,                     Rui%Liu%NULL%1,                     Jie%Yang%NULL%2,                     Fang%Liu%NULL%1,                     Kailang%Wu%NULL%1,                     Lang%Chen%NULL%1,                     Wei%Hou%NULL%2,                     Yong%Feng%yongfeng@whu.edu.cn%1,                     Chengliang%Zhu%xinchengzhu@163.com%2,                     Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                     Shaobo%Shi%NULL%2,                     Shaobo%Shi%NULL%0,                     Jiling%Zhu%NULL%1,                     Jinzhi%Shi%NULL%1,                     Kai%Dai%NULL%1,                     Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                     Bo%Hu%NULL%2,                     Yao%Zhang%NULL%1,                     Hao%Wang%NULL%1,                     Xiaoyang%Zhou%NULL%1,                     Wei%Hu%NULL%1,                     Yuting%Cheng%NULL%1,                     Jie%Yan%NULL%0,                     Haiqin%Ping%NULL%1,                     Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                     Kwan Ho%Lee%NULL%2,                     Kwan Ho%Lee%NULL%0,                     Jin Hong%Chung%NULL%2,                     Jin Hong%Chung%NULL%0,                     Kyeong-Cheol%Shin%NULL%2,                     Kyeong-Cheol%Shin%NULL%0,                     Eun Young%Choi%NULL%2,                     Eun Young%Choi%NULL%0,                     Hyun Jung%Jin%NULL%2,                     Hyun Jung%Jin%NULL%0,                     Jong Geol%Jang%NULL%2,                     Jong Geol%Jang%NULL%0,                     Wonhwa%Lee%NULL%2,                     Wonhwa%Lee%NULL%0,                     June Hong%Ahn%NULL%2,                     June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                     Hong%Xu%NULL%1,                     Ming%Yang%NULL%0,                     Yilan%Zeng%NULL%1,                     Hong%Chen%NULL%1,                     Ru%Liu%NULL%1,                     Qingfeng%Li%NULL%1,                     Na%Zhang%NULL%1,                     Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1769,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1747,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1776,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1834,7 +1885,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1863,7 +1914,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1892,7 +1943,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1921,7 +1972,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1950,7 +2001,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1979,7 +2030,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2008,7 +2059,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -2037,7 +2088,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -2066,7 +2117,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2124,7 +2175,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -2153,7 +2204,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -2182,7 +2233,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -2211,7 +2262,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2240,7 +2291,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="495">
   <si>
     <t>Doi</t>
   </si>
@@ -1419,6 +1419,267 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                     Hong%Xu%NULL%1,                     Ming%Yang%NULL%0,                     Yilan%Zeng%NULL%1,                     Hong%Chen%NULL%1,                     Ru%Liu%NULL%1,                     Qingfeng%Li%NULL%1,                     Na%Zhang%NULL%1,                     Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                      Yongzhen%Fan%NULL%2,                      Ming%Chen%NULL%3,                      Xiaoyan%Wu%NULL%3,                      Lin%Zhang%NULL%3,                      Tao%He%NULL%3,                      Hairong%Wang%NULL%3,                      Jing%Wan%NULL%2,                      Xinghuan%Wang%NULL%0,                      Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                      Yi%Xiang%NULL%0,                      Wei%Fang%NULL%0,                      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                      Boqun%Li%279685211@qq.com%0,                      Boqun%Li%279685211@qq.com%0,                      Yanjun%Hu%huyanjun@163.com%0,                      Chunhui%Lang%NULL%0,                      Daoqiu%Huang%NULL%0,                      Qiuyan%Sun%NULL%0,                      Yan%Xiong%NULL%0,                      Xia%Huang%NULL%0,                      Jinglong%Lv%NULL%0,                      Yaling%Luo%NULL%0,                      Li%Shen%NULL%0,                      Haoran%Yang%NULL%0,                      Gu%Huang%NULL%0,                      Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: BMJ</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                      Lei%Tu%NULL%5,                      Lei%Tu%NULL%0,                      Pingjun%Zhu%NULL%4,                      Pingjun%Zhu%NULL%0,                      Mi%Mu%NULL%5,                      Mi%Mu%NULL%0,                      Runsheng%Wang%NULL%3,                      Pengcheng%Yang%NULL%3,                      Xi%Wang%NULL%2,                      Chao%Hu%NULL%3,                      Rongyu%Ping%NULL%3,                      Peng%Hu%NULL%3,                      Tianzhi%Li%NULL%3,                      Feng%Cao%NULL%2,                      Christopher%Chang%NULL%2,                      Qinyong%Hu%NULL%3,                      Yang%Jin%NULL%2,                      Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                      Xiangjie%Li%NULL%1,                      Mingquan%Chen%NULL%2,                      Mingquan%Chen%NULL%0,                      Yi%Feng%NULL%1,                      Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%0,                     Dong%Xiang%coreGivesNoEmail%0,                     Gao%Ya-dong%coreGivesNoEmail%0,                     Yan%You-qin%coreGivesNoEmail%0,                     Yang%Yi-bin%coreGivesNoEmail%0,                     Yuan%Ya-dong%coreGivesNoEmail%0,                     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                      Wenbo%He%NULL%3,                      Xiaomei%Yu%NULL%3,                      Dalong%Hu%NULL%3,                      Mingwei%Bao%NULL%3,                      Huafen%Liu%NULL%3,                      Jiali%Zhou%NULL%3,                      Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%5,                      Xuan%Dong%NULL%5,                      Jieming%Qu%NULL%8,                      Fengyun%Gong%NULL%5,                      Yang%Han%NULL%4,                      Yang%Qiu%NULL%4,                      Jingli%Wang%NULL%5,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%4,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                     Bettinardi%Alessandra%coreGivesNoEmail%0,                     Bonetti%Graziella%coreGivesNoEmail%0,                     Borrelli%Gianluca%coreGivesNoEmail%0,                     Fiordalisi%Gianfranco%coreGivesNoEmail%0,                     Lippi%Giuseppe%coreGivesNoEmail%0,                     Manelli%Filippo%coreGivesNoEmail%0,                     Marino%Antonio%coreGivesNoEmail%0,                     Menolfi%Annamaria%coreGivesNoEmail%0,                     Patroni%Andrea%coreGivesNoEmail%0,                     Saggini%Sara%coreGivesNoEmail%0,                     Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                      Linlin%Xie%NULL%1,                      Rui%Liu%NULL%1,                      Jie%Yang%NULL%2,                      Fang%Liu%NULL%1,                      Kailang%Wu%NULL%1,                      Lang%Chen%NULL%1,                      Wei%Hou%NULL%2,                      Yong%Feng%yongfeng@whu.edu.cn%1,                      Chengliang%Zhu%xinchengzhu@163.com%2,                      Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                      Shaobo%Shi%NULL%2,                      Shaobo%Shi%NULL%0,                      Jiling%Zhu%NULL%1,                      Jinzhi%Shi%NULL%1,                      Kai%Dai%NULL%1,                      Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                      Bo%Hu%NULL%2,                      Yao%Zhang%NULL%1,                      Hao%Wang%NULL%1,                      Xiaoyang%Zhou%NULL%1,                      Wei%Hu%NULL%1,                      Yuting%Cheng%NULL%1,                      Jie%Yan%NULL%0,                      Haiqin%Ping%NULL%1,                      Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                      Kwan Ho%Lee%NULL%2,                      Kwan Ho%Lee%NULL%0,                      Jin Hong%Chung%NULL%2,                      Jin Hong%Chung%NULL%0,                      Kyeong-Cheol%Shin%NULL%2,                      Kyeong-Cheol%Shin%NULL%0,                      Eun Young%Choi%NULL%2,                      Eun Young%Choi%NULL%0,                      Hyun Jung%Jin%NULL%2,                      Hyun Jung%Jin%NULL%0,                      Jong Geol%Jang%NULL%2,                      Jong Geol%Jang%NULL%0,                      Wonhwa%Lee%NULL%2,                      Wonhwa%Lee%NULL%0,                      June Hong%Ahn%NULL%2,                      June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                      Hong%Xu%NULL%1,                      Ming%Yang%NULL%0,                      Yilan%Zeng%NULL%1,                      Hong%Chen%NULL%1,                      Ru%Liu%NULL%1,                      Qingfeng%Li%NULL%1,                      Na%Zhang%NULL%1,                      Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                       Yongzhen%Fan%NULL%2,                       Ming%Chen%NULL%3,                       Xiaoyan%Wu%NULL%3,                       Lin%Zhang%NULL%3,                       Tao%He%NULL%3,                       Hairong%Wang%NULL%3,                       Jing%Wan%NULL%2,                       Xinghuan%Wang%NULL%0,                       Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                       Yi%Xiang%NULL%0,                       Wei%Fang%NULL%0,                       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                       Boqun%Li%279685211@qq.com%0,                       Boqun%Li%279685211@qq.com%0,                       Yanjun%Hu%huyanjun@163.com%0,                       Chunhui%Lang%NULL%0,                       Daoqiu%Huang%NULL%0,                       Qiuyan%Sun%NULL%0,                       Yan%Xiong%NULL%0,                       Xia%Huang%NULL%0,                       Jinglong%Lv%NULL%0,                       Yaling%Luo%NULL%0,                       Li%Shen%NULL%0,                       Haoran%Yang%NULL%0,                       Gu%Huang%NULL%0,                       Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                       Lei%Tu%NULL%5,                       Lei%Tu%NULL%0,                       Pingjun%Zhu%NULL%4,                       Pingjun%Zhu%NULL%0,                       Mi%Mu%NULL%5,                       Mi%Mu%NULL%0,                       Runsheng%Wang%NULL%3,                       Pengcheng%Yang%NULL%3,                       Xi%Wang%NULL%2,                       Chao%Hu%NULL%3,                       Rongyu%Ping%NULL%3,                       Peng%Hu%NULL%3,                       Tianzhi%Li%NULL%3,                       Feng%Cao%NULL%2,                       Christopher%Chang%NULL%2,                       Qinyong%Hu%NULL%3,                       Yang%Jin%NULL%2,                       Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                       Xiangjie%Li%NULL%1,                       Mingquan%Chen%NULL%2,                       Mingquan%Chen%NULL%0,                       Yi%Feng%NULL%1,                       Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%0,                      Dong%Xiang%coreGivesNoEmail%0,                      Gao%Ya-dong%coreGivesNoEmail%0,                      Yan%You-qin%coreGivesNoEmail%0,                      Yang%Yi-bin%coreGivesNoEmail%0,                      Yuan%Ya-dong%coreGivesNoEmail%0,                      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                       Wenbo%He%NULL%3,                       Xiaomei%Yu%NULL%3,                       Dalong%Hu%NULL%3,                       Mingwei%Bao%NULL%3,                       Huafen%Liu%NULL%3,                       Jiali%Zhou%NULL%3,                       Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%5,                       Xuan%Dong%NULL%5,                       Jieming%Qu%NULL%8,                       Fengyun%Gong%NULL%5,                       Yang%Han%NULL%4,                       Yang%Qiu%NULL%4,                       Jingli%Wang%NULL%5,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%4,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                      Bettinardi%Alessandra%coreGivesNoEmail%0,                      Bonetti%Graziella%coreGivesNoEmail%0,                      Borrelli%Gianluca%coreGivesNoEmail%0,                      Fiordalisi%Gianfranco%coreGivesNoEmail%0,                      Lippi%Giuseppe%coreGivesNoEmail%0,                      Manelli%Filippo%coreGivesNoEmail%0,                      Marino%Antonio%coreGivesNoEmail%0,                      Menolfi%Annamaria%coreGivesNoEmail%0,                      Patroni%Andrea%coreGivesNoEmail%0,                      Saggini%Sara%coreGivesNoEmail%0,                      Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                       Linlin%Xie%NULL%1,                       Rui%Liu%NULL%1,                       Jie%Yang%NULL%2,                       Fang%Liu%NULL%1,                       Kailang%Wu%NULL%1,                       Lang%Chen%NULL%1,                       Wei%Hou%NULL%2,                       Yong%Feng%yongfeng@whu.edu.cn%1,                       Chengliang%Zhu%xinchengzhu@163.com%2,                       Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                       Shaobo%Shi%NULL%2,                       Shaobo%Shi%NULL%0,                       Jiling%Zhu%NULL%1,                       Jinzhi%Shi%NULL%1,                       Kai%Dai%NULL%1,                       Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                       Bo%Hu%NULL%2,                       Yao%Zhang%NULL%1,                       Hao%Wang%NULL%1,                       Xiaoyang%Zhou%NULL%1,                       Wei%Hu%NULL%1,                       Yuting%Cheng%NULL%1,                       Jie%Yan%NULL%0,                       Haiqin%Ping%NULL%1,                       Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                       Kwan Ho%Lee%NULL%2,                       Kwan Ho%Lee%NULL%0,                       Jin Hong%Chung%NULL%2,                       Jin Hong%Chung%NULL%0,                       Kyeong-Cheol%Shin%NULL%2,                       Kyeong-Cheol%Shin%NULL%0,                       Eun Young%Choi%NULL%2,                       Eun Young%Choi%NULL%0,                       Hyun Jung%Jin%NULL%2,                       Hyun Jung%Jin%NULL%0,                       Jong Geol%Jang%NULL%2,                       Jong Geol%Jang%NULL%0,                       Wonhwa%Lee%NULL%2,                       Wonhwa%Lee%NULL%0,                       June Hong%Ahn%NULL%2,                       June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                       Hong%Xu%NULL%1,                       Ming%Yang%NULL%0,                       Yilan%Zeng%NULL%1,                       Hong%Chen%NULL%1,                       Ru%Liu%NULL%1,                       Qingfeng%Li%NULL%1,                       Na%Zhang%NULL%1,                       Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                        Yongzhen%Fan%NULL%2,                        Ming%Chen%NULL%3,                        Xiaoyan%Wu%NULL%3,                        Lin%Zhang%NULL%3,                        Tao%He%NULL%3,                        Hairong%Wang%NULL%3,                        Jing%Wan%NULL%2,                        Xinghuan%Wang%NULL%0,                        Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                        Yi%Xiang%NULL%0,                        Wei%Fang%NULL%0,                        Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                        Boqun%Li%279685211@qq.com%0,                        Boqun%Li%279685211@qq.com%0,                        Yanjun%Hu%huyanjun@163.com%0,                        Chunhui%Lang%NULL%0,                        Daoqiu%Huang%NULL%0,                        Qiuyan%Sun%NULL%0,                        Yan%Xiong%NULL%0,                        Xia%Huang%NULL%0,                        Jinglong%Lv%NULL%0,                        Yaling%Luo%NULL%0,                        Li%Shen%NULL%0,                        Haoran%Yang%NULL%0,                        Gu%Huang%NULL%0,                        Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                        Lei%Tu%NULL%5,                        Lei%Tu%NULL%0,                        Pingjun%Zhu%NULL%4,                        Pingjun%Zhu%NULL%0,                        Mi%Mu%NULL%5,                        Mi%Mu%NULL%0,                        Runsheng%Wang%NULL%3,                        Pengcheng%Yang%NULL%3,                        Xi%Wang%NULL%2,                        Chao%Hu%NULL%3,                        Rongyu%Ping%NULL%3,                        Peng%Hu%NULL%3,                        Tianzhi%Li%NULL%3,                        Feng%Cao%NULL%2,                        Christopher%Chang%NULL%2,                        Qinyong%Hu%NULL%3,                        Yang%Jin%NULL%2,                        Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                        Xiangjie%Li%NULL%1,                        Mingquan%Chen%NULL%2,                        Mingquan%Chen%NULL%0,                        Yi%Feng%NULL%1,                        Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%0,                       Dong%Xiang%coreGivesNoEmail%0,                       Gao%Ya-dong%coreGivesNoEmail%0,                       Yan%You-qin%coreGivesNoEmail%0,                       Yang%Yi-bin%coreGivesNoEmail%0,                       Yuan%Ya-dong%coreGivesNoEmail%0,                       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                        Wenbo%He%NULL%3,                        Xiaomei%Yu%NULL%3,                        Dalong%Hu%NULL%3,                        Mingwei%Bao%NULL%3,                        Huafen%Liu%NULL%3,                        Jiali%Zhou%NULL%3,                        Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%5,                        Xuan%Dong%NULL%5,                        Jieming%Qu%NULL%8,                        Fengyun%Gong%NULL%5,                        Yang%Han%NULL%4,                        Yang%Qiu%NULL%4,                        Jingli%Wang%NULL%5,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%4,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                       Bettinardi%Alessandra%coreGivesNoEmail%0,                       Bonetti%Graziella%coreGivesNoEmail%0,                       Borrelli%Gianluca%coreGivesNoEmail%0,                       Fiordalisi%Gianfranco%coreGivesNoEmail%0,                       Lippi%Giuseppe%coreGivesNoEmail%0,                       Manelli%Filippo%coreGivesNoEmail%0,                       Marino%Antonio%coreGivesNoEmail%0,                       Menolfi%Annamaria%coreGivesNoEmail%0,                       Patroni%Andrea%coreGivesNoEmail%0,                       Saggini%Sara%coreGivesNoEmail%0,                       Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                        Linlin%Xie%NULL%1,                        Rui%Liu%NULL%1,                        Jie%Yang%NULL%2,                        Fang%Liu%NULL%1,                        Kailang%Wu%NULL%1,                        Lang%Chen%NULL%1,                        Wei%Hou%NULL%2,                        Yong%Feng%yongfeng@whu.edu.cn%1,                        Chengliang%Zhu%xinchengzhu@163.com%2,                        Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                        Shaobo%Shi%NULL%2,                        Shaobo%Shi%NULL%0,                        Jiling%Zhu%NULL%1,                        Jinzhi%Shi%NULL%1,                        Kai%Dai%NULL%1,                        Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                        Bo%Hu%NULL%2,                        Yao%Zhang%NULL%1,                        Hao%Wang%NULL%1,                        Xiaoyang%Zhou%NULL%1,                        Wei%Hu%NULL%1,                        Yuting%Cheng%NULL%1,                        Jie%Yan%NULL%0,                        Haiqin%Ping%NULL%1,                        Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                        Kwan Ho%Lee%NULL%2,                        Kwan Ho%Lee%NULL%0,                        Jin Hong%Chung%NULL%2,                        Jin Hong%Chung%NULL%0,                        Kyeong-Cheol%Shin%NULL%2,                        Kyeong-Cheol%Shin%NULL%0,                        Eun Young%Choi%NULL%2,                        Eun Young%Choi%NULL%0,                        Hyun Jung%Jin%NULL%2,                        Hyun Jung%Jin%NULL%0,                        Jong Geol%Jang%NULL%2,                        Jong Geol%Jang%NULL%0,                        Wonhwa%Lee%NULL%2,                        Wonhwa%Lee%NULL%0,                        June Hong%Ahn%NULL%2,                        June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                        Hong%Xu%NULL%1,                        Ming%Yang%NULL%0,                        Yilan%Zeng%NULL%1,                        Hong%Chen%NULL%1,                        Ru%Liu%NULL%1,                        Qingfeng%Li%NULL%1,                        Na%Zhang%NULL%1,                        Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                         Yongzhen%Fan%NULL%2,                         Ming%Chen%NULL%3,                         Xiaoyan%Wu%NULL%3,                         Lin%Zhang%NULL%3,                         Tao%He%NULL%3,                         Hairong%Wang%NULL%3,                         Jing%Wan%NULL%2,                         Xinghuan%Wang%NULL%0,                         Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                         Yi%Xiang%NULL%0,                         Wei%Fang%NULL%0,                         Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                         Boqun%Li%279685211@qq.com%0,                         Boqun%Li%279685211@qq.com%0,                         Yanjun%Hu%huyanjun@163.com%0,                         Chunhui%Lang%NULL%0,                         Daoqiu%Huang%NULL%0,                         Qiuyan%Sun%NULL%0,                         Yan%Xiong%NULL%0,                         Xia%Huang%NULL%0,                         Jinglong%Lv%NULL%0,                         Yaling%Luo%NULL%0,                         Li%Shen%NULL%0,                         Haoran%Yang%NULL%0,                         Gu%Huang%NULL%0,                         Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                         Lei%Tu%NULL%5,                         Lei%Tu%NULL%0,                         Pingjun%Zhu%NULL%4,                         Pingjun%Zhu%NULL%0,                         Mi%Mu%NULL%5,                         Mi%Mu%NULL%0,                         Runsheng%Wang%NULL%3,                         Pengcheng%Yang%NULL%3,                         Xi%Wang%NULL%2,                         Chao%Hu%NULL%3,                         Rongyu%Ping%NULL%3,                         Peng%Hu%NULL%3,                         Tianzhi%Li%NULL%3,                         Feng%Cao%NULL%2,                         Christopher%Chang%NULL%2,                         Qinyong%Hu%NULL%3,                         Yang%Jin%NULL%2,                         Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                         Xiangjie%Li%NULL%1,                         Mingquan%Chen%NULL%2,                         Mingquan%Chen%NULL%0,                         Yi%Feng%NULL%1,                         Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%0,                        Dong%Xiang%coreGivesNoEmail%0,                        Gao%Ya-dong%coreGivesNoEmail%0,                        Yan%You-qin%coreGivesNoEmail%0,                        Yang%Yi-bin%coreGivesNoEmail%0,                        Yuan%Ya-dong%coreGivesNoEmail%0,                        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                         Wenbo%He%NULL%3,                         Xiaomei%Yu%NULL%3,                         Dalong%Hu%NULL%3,                         Mingwei%Bao%NULL%3,                         Huafen%Liu%NULL%3,                         Jiali%Zhou%NULL%3,                         Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%5,                         Xuan%Dong%NULL%5,                         Jieming%Qu%NULL%8,                         Fengyun%Gong%NULL%5,                         Yang%Han%NULL%4,                         Yang%Qiu%NULL%4,                         Jingli%Wang%NULL%5,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%4,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                        Bettinardi%Alessandra%coreGivesNoEmail%0,                        Bonetti%Graziella%coreGivesNoEmail%0,                        Borrelli%Gianluca%coreGivesNoEmail%0,                        Fiordalisi%Gianfranco%coreGivesNoEmail%0,                        Lippi%Giuseppe%coreGivesNoEmail%0,                        Manelli%Filippo%coreGivesNoEmail%0,                        Marino%Antonio%coreGivesNoEmail%0,                        Menolfi%Annamaria%coreGivesNoEmail%0,                        Patroni%Andrea%coreGivesNoEmail%0,                        Saggini%Sara%coreGivesNoEmail%0,                        Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                         Linlin%Xie%NULL%1,                         Rui%Liu%NULL%1,                         Jie%Yang%NULL%2,                         Fang%Liu%NULL%1,                         Kailang%Wu%NULL%1,                         Lang%Chen%NULL%1,                         Wei%Hou%NULL%2,                         Yong%Feng%yongfeng@whu.edu.cn%1,                         Chengliang%Zhu%xinchengzhu@163.com%2,                         Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                         Shaobo%Shi%NULL%2,                         Shaobo%Shi%NULL%0,                         Jiling%Zhu%NULL%1,                         Jinzhi%Shi%NULL%1,                         Kai%Dai%NULL%1,                         Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                         Bo%Hu%NULL%2,                         Yao%Zhang%NULL%1,                         Hao%Wang%NULL%1,                         Xiaoyang%Zhou%NULL%1,                         Wei%Hu%NULL%1,                         Yuting%Cheng%NULL%1,                         Jie%Yan%NULL%0,                         Haiqin%Ping%NULL%1,                         Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                         Kwan Ho%Lee%NULL%2,                         Kwan Ho%Lee%NULL%0,                         Jin Hong%Chung%NULL%2,                         Jin Hong%Chung%NULL%0,                         Kyeong-Cheol%Shin%NULL%2,                         Kyeong-Cheol%Shin%NULL%0,                         Eun Young%Choi%NULL%2,                         Eun Young%Choi%NULL%0,                         Hyun Jung%Jin%NULL%2,                         Hyun Jung%Jin%NULL%0,                         Jong Geol%Jang%NULL%2,                         Jong Geol%Jang%NULL%0,                         Wonhwa%Lee%NULL%2,                         Wonhwa%Lee%NULL%0,                         June Hong%Ahn%NULL%2,                         June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                         Hong%Xu%NULL%1,                         Ming%Yang%NULL%0,                         Yilan%Zeng%NULL%1,                         Hong%Chen%NULL%1,                         Ru%Liu%NULL%1,                         Qingfeng%Li%NULL%1,                         Na%Zhang%NULL%1,                         Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                          Yongzhen%Fan%NULL%2,                          Ming%Chen%NULL%3,                          Xiaoyan%Wu%NULL%3,                          Lin%Zhang%NULL%3,                          Tao%He%NULL%3,                          Hairong%Wang%NULL%3,                          Jing%Wan%NULL%2,                          Xinghuan%Wang%NULL%0,                          Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                          Yi%Xiang%NULL%0,                          Wei%Fang%NULL%0,                          Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                          Boqun%Li%279685211@qq.com%0,                          Boqun%Li%279685211@qq.com%0,                          Yanjun%Hu%huyanjun@163.com%0,                          Chunhui%Lang%NULL%0,                          Daoqiu%Huang%NULL%0,                          Qiuyan%Sun%NULL%0,                          Yan%Xiong%NULL%0,                          Xia%Huang%NULL%0,                          Jinglong%Lv%NULL%0,                          Yaling%Luo%NULL%0,                          Li%Shen%NULL%0,                          Haoran%Yang%NULL%0,                          Gu%Huang%NULL%0,                          Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                          Lei%Tu%NULL%5,                          Lei%Tu%NULL%0,                          Pingjun%Zhu%NULL%4,                          Pingjun%Zhu%NULL%0,                          Mi%Mu%NULL%5,                          Mi%Mu%NULL%0,                          Runsheng%Wang%NULL%3,                          Pengcheng%Yang%NULL%3,                          Xi%Wang%NULL%2,                          Chao%Hu%NULL%3,                          Rongyu%Ping%NULL%3,                          Peng%Hu%NULL%3,                          Tianzhi%Li%NULL%3,                          Feng%Cao%NULL%2,                          Christopher%Chang%NULL%2,                          Qinyong%Hu%NULL%3,                          Yang%Jin%NULL%2,                          Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                          Xiangjie%Li%NULL%1,                          Mingquan%Chen%NULL%2,                          Mingquan%Chen%NULL%0,                          Yi%Feng%NULL%1,                          Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                         Cao%Yi-yuan%coreGivesNoEmail%0,                         Dong%Xiang%coreGivesNoEmail%0,                         Gao%Ya-dong%coreGivesNoEmail%0,                         Yan%You-qin%coreGivesNoEmail%0,                         Yang%Yi-bin%coreGivesNoEmail%0,                         Yuan%Ya-dong%coreGivesNoEmail%0,                         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                          Wenbo%He%NULL%3,                          Xiaomei%Yu%NULL%3,                          Dalong%Hu%NULL%3,                          Mingwei%Bao%NULL%3,                          Huafen%Liu%NULL%3,                          Jiali%Zhou%NULL%3,                          Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%5,                          Xuan%Dong%NULL%5,                          Jieming%Qu%NULL%8,                          Fengyun%Gong%NULL%5,                          Yang%Han%NULL%4,                          Yang%Qiu%NULL%4,                          Jingli%Wang%NULL%5,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%4,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                         Bettinardi%Alessandra%coreGivesNoEmail%0,                         Bonetti%Graziella%coreGivesNoEmail%0,                         Borrelli%Gianluca%coreGivesNoEmail%0,                         Fiordalisi%Gianfranco%coreGivesNoEmail%0,                         Lippi%Giuseppe%coreGivesNoEmail%0,                         Manelli%Filippo%coreGivesNoEmail%0,                         Marino%Antonio%coreGivesNoEmail%0,                         Menolfi%Annamaria%coreGivesNoEmail%0,                         Patroni%Andrea%coreGivesNoEmail%0,                         Saggini%Sara%coreGivesNoEmail%0,                         Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                          Linlin%Xie%NULL%1,                          Rui%Liu%NULL%1,                          Jie%Yang%NULL%2,                          Fang%Liu%NULL%1,                          Kailang%Wu%NULL%1,                          Lang%Chen%NULL%1,                          Wei%Hou%NULL%2,                          Yong%Feng%yongfeng@whu.edu.cn%1,                          Chengliang%Zhu%xinchengzhu@163.com%2,                          Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                          Shaobo%Shi%NULL%2,                          Shaobo%Shi%NULL%0,                          Jiling%Zhu%NULL%1,                          Jinzhi%Shi%NULL%1,                          Kai%Dai%NULL%1,                          Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                          Bo%Hu%NULL%2,                          Yao%Zhang%NULL%1,                          Hao%Wang%NULL%1,                          Xiaoyang%Zhou%NULL%1,                          Wei%Hu%NULL%1,                          Yuting%Cheng%NULL%1,                          Jie%Yan%NULL%0,                          Haiqin%Ping%NULL%1,                          Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                          Kwan Ho%Lee%NULL%2,                          Kwan Ho%Lee%NULL%0,                          Jin Hong%Chung%NULL%2,                          Jin Hong%Chung%NULL%0,                          Kyeong-Cheol%Shin%NULL%2,                          Kyeong-Cheol%Shin%NULL%0,                          Eun Young%Choi%NULL%2,                          Eun Young%Choi%NULL%0,                          Hyun Jung%Jin%NULL%2,                          Hyun Jung%Jin%NULL%0,                          Jong Geol%Jang%NULL%2,                          Jong Geol%Jang%NULL%0,                          Wonhwa%Lee%NULL%2,                          Wonhwa%Lee%NULL%0,                          June Hong%Ahn%NULL%2,                          June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                          Hong%Xu%NULL%1,                          Ming%Yang%NULL%0,                          Yilan%Zeng%NULL%1,                          Hong%Chen%NULL%1,                          Ru%Liu%NULL%1,                          Qingfeng%Li%NULL%1,                          Na%Zhang%NULL%1,                          Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -1754,6 +2015,9 @@
       <c r="I1" t="s">
         <v>91</v>
       </c>
+      <c r="J1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1769,7 +2033,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1782,6 +2046,9 @@
       </c>
       <c r="I2" t="s">
         <v>372</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1798,7 +2065,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1811,6 +2078,9 @@
       </c>
       <c r="I3" t="s">
         <v>372</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1827,7 +2097,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>480</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1840,6 +2110,9 @@
       </c>
       <c r="I4" t="s">
         <v>375</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1868,7 +2141,10 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>376</v>
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1885,7 +2161,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1898,6 +2174,9 @@
       </c>
       <c r="I6" t="s">
         <v>372</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1914,7 +2193,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>482</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1927,6 +2206,9 @@
       </c>
       <c r="I7" t="s">
         <v>372</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1943,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1956,6 +2238,9 @@
       </c>
       <c r="I8" t="s">
         <v>372</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1972,7 +2257,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1985,6 +2270,9 @@
       </c>
       <c r="I9" t="s">
         <v>376</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2001,7 +2289,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -2014,6 +2302,9 @@
       </c>
       <c r="I10" t="s">
         <v>375</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2030,7 +2321,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2043,6 +2334,9 @@
       </c>
       <c r="I11" t="s">
         <v>376</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2059,7 +2353,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -2072,6 +2366,9 @@
       </c>
       <c r="I12" t="s">
         <v>375</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2088,7 +2385,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>488</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -2101,6 +2398,9 @@
       </c>
       <c r="I13" t="s">
         <v>375</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2117,7 +2417,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2130,6 +2430,9 @@
       </c>
       <c r="I14" t="s">
         <v>376</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2160,6 +2463,9 @@
       <c r="I15" t="s">
         <v>94</v>
       </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2175,7 +2481,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -2188,6 +2494,9 @@
       </c>
       <c r="I16" t="s">
         <v>372</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2204,7 +2513,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -2217,6 +2526,9 @@
       </c>
       <c r="I17" t="s">
         <v>372</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2233,7 +2545,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -2246,6 +2558,9 @@
       </c>
       <c r="I18" t="s">
         <v>375</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2262,7 +2577,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2275,6 +2590,9 @@
       </c>
       <c r="I19" t="s">
         <v>372</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2291,7 +2609,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -2304,6 +2622,9 @@
       </c>
       <c r="I20" t="s">
         <v>375</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/47.xlsx
+++ b/Covid_19_Dataset_and_References/References/47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="536">
   <si>
     <t>Doi</t>
   </si>
@@ -1680,6 +1680,136 @@
   </si>
   <si>
     <t>[Yongli%Zheng%Zhyl1973@126.com%1,                          Hong%Xu%NULL%1,                          Ming%Yang%NULL%0,                          Yilan%Zeng%NULL%1,                          Hong%Chen%NULL%1,                          Ru%Liu%NULL%1,                          Qingfeng%Li%NULL%1,                          Na%Zhang%NULL%1,                          Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                           Yongzhen%Fan%NULL%2,                           Ming%Chen%NULL%3,                           Xiaoyan%Wu%NULL%3,                           Lin%Zhang%NULL%3,                           Tao%He%NULL%3,                           Hairong%Wang%NULL%3,                           Jing%Wan%NULL%2,                           Xinghuan%Wang%NULL%0,                           Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                           Yi%Xiang%NULL%0,                           Wei%Fang%NULL%0,                           Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                           Boqun%Li%279685211@qq.com%0,                           Boqun%Li%279685211@qq.com%0,                           Yanjun%Hu%huyanjun@163.com%0,                           Chunhui%Lang%NULL%0,                           Daoqiu%Huang%NULL%0,                           Qiuyan%Sun%NULL%0,                           Yan%Xiong%NULL%0,                           Xia%Huang%NULL%0,                           Jinglong%Lv%NULL%0,                           Yaling%Luo%NULL%0,                           Li%Shen%NULL%0,                           Haoran%Yang%NULL%0,                           Gu%Huang%NULL%0,                           Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                           Lei%Tu%NULL%5,                           Lei%Tu%NULL%0,                           Pingjun%Zhu%NULL%4,                           Pingjun%Zhu%NULL%0,                           Mi%Mu%NULL%5,                           Mi%Mu%NULL%0,                           Runsheng%Wang%NULL%3,                           Pengcheng%Yang%NULL%3,                           Xi%Wang%NULL%2,                           Chao%Hu%NULL%3,                           Rongyu%Ping%NULL%3,                           Peng%Hu%NULL%3,                           Tianzhi%Li%NULL%3,                           Feng%Cao%NULL%2,                           Christopher%Chang%NULL%2,                           Qinyong%Hu%NULL%3,                           Yang%Jin%NULL%2,                           Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                           Xiangjie%Li%NULL%1,                           Mingquan%Chen%NULL%2,                           Mingquan%Chen%NULL%0,                           Yi%Feng%NULL%1,                           Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                          Cao%Yi-yuan%coreGivesNoEmail%0,                          Dong%Xiang%coreGivesNoEmail%0,                          Gao%Ya-dong%coreGivesNoEmail%0,                          Yan%You-qin%coreGivesNoEmail%0,                          Yang%Yi-bin%coreGivesNoEmail%0,                          Yuan%Ya-dong%coreGivesNoEmail%0,                          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                           Wenbo%He%NULL%3,                           Xiaomei%Yu%NULL%3,                           Dalong%Hu%NULL%3,                           Mingwei%Bao%NULL%3,                           Huafen%Liu%NULL%3,                           Jiali%Zhou%NULL%3,                           Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%5,                           Xuan%Dong%NULL%5,                           Jieming%Qu%NULL%8,                           Fengyun%Gong%NULL%5,                           Yang%Han%NULL%4,                           Yang%Qiu%NULL%4,                           Jingli%Wang%NULL%5,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%4,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                          Bettinardi%Alessandra%coreGivesNoEmail%0,                          Bonetti%Graziella%coreGivesNoEmail%0,                          Borrelli%Gianluca%coreGivesNoEmail%0,                          Fiordalisi%Gianfranco%coreGivesNoEmail%0,                          Lippi%Giuseppe%coreGivesNoEmail%0,                          Manelli%Filippo%coreGivesNoEmail%0,                          Marino%Antonio%coreGivesNoEmail%0,                          Menolfi%Annamaria%coreGivesNoEmail%0,                          Patroni%Andrea%coreGivesNoEmail%0,                          Saggini%Sara%coreGivesNoEmail%0,                          Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 161 cases of corona virus disease 2019 (COVID-19) in Changsha.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE In December 2019, a new type of coronavirus-infected pneumonia broke out in Wuhan and spread rapidly to other parts of the country. The purpose of this study was to investigate the clinical features of coronavirus disease 2019 (COVID-19). MATERIALS AND METHODS A retrospective analysis was performed on the confirmed cases of COVID-19, who were admitted to the North Hospital of Changsha first Hospital (Changsha Public Health treatment Center) from January 17 to February 7, 2020. RESULTS The median age of COVID-19 patients was 45 years (range 33.5-57). The male patients accounted for 49.7%, 64.6% of the patients had a history of exposure in Wuhan, and 31.7% had family aggregation. The median days of onset were six, and the incidence of severe illness was 18.6%. Compared with the non-severe group, the severe group showed statistical significance in older age, hypertension, bilateral lung plaque shadow, decrease in lymphocyte count, increase in C-reactive protein (CRP), aspartate aminotransferase (AST), lactate dehydrogenase, and creatine kinase. CONCLUSIONS Age, combined hypertension, oxygenation index, double lung patch, decreased lymphocyte count, and elevated levels of C-reactive protein, aspartate aminotransferase, lactate dehydrogenase, and creatine kinase can be used as predictors of the disease severity.</t>
+  </si>
+  <si>
+    <t>[ F%Zheng%elasticNoEmail%0,  W% Tang%elasticNoEmail%0,  H% Li%elasticNoEmail%0,  Y-X% Huang%elasticNoEmail%0,  Y-L% Xie%elasticNoEmail%0,  Z-G% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                           Linlin%Xie%NULL%1,                           Rui%Liu%NULL%1,                           Jie%Yang%NULL%2,                           Fang%Liu%NULL%1,                           Kailang%Wu%NULL%1,                           Lang%Chen%NULL%1,                           Wei%Hou%NULL%2,                           Yong%Feng%yongfeng@whu.edu.cn%1,                           Chengliang%Zhu%xinchengzhu@163.com%2,                           Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                           Shaobo%Shi%NULL%2,                           Shaobo%Shi%NULL%0,                           Jiling%Zhu%NULL%1,                           Jinzhi%Shi%NULL%1,                           Kai%Dai%NULL%1,                           Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                           Bo%Hu%NULL%2,                           Yao%Zhang%NULL%1,                           Hao%Wang%NULL%1,                           Xiaoyang%Zhou%NULL%1,                           Wei%Hu%NULL%1,                           Yuting%Cheng%NULL%1,                           Jie%Yan%NULL%0,                           Haiqin%Ping%NULL%1,                           Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                           Kwan Ho%Lee%NULL%2,                           Kwan Ho%Lee%NULL%0,                           Jin Hong%Chung%NULL%2,                           Jin Hong%Chung%NULL%0,                           Kyeong-Cheol%Shin%NULL%2,                           Kyeong-Cheol%Shin%NULL%0,                           Eun Young%Choi%NULL%2,                           Eun Young%Choi%NULL%0,                           Hyun Jung%Jin%NULL%2,                           Hyun Jung%Jin%NULL%0,                           Jong Geol%Jang%NULL%2,                           Jong Geol%Jang%NULL%0,                           Wonhwa%Lee%NULL%2,                           Wonhwa%Lee%NULL%0,                           June Hong%Ahn%NULL%2,                           June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                           Hong%Xu%NULL%1,                           Ming%Yang%NULL%0,                           Yilan%Zeng%NULL%1,                           Hong%Chen%NULL%1,                           Ru%Liu%NULL%1,                           Qingfeng%Li%NULL%1,                           Na%Zhang%NULL%1,                           Dan%Wang%188170370@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                            Yongzhen%Fan%NULL%2,                            Ming%Chen%NULL%3,                            Xiaoyan%Wu%NULL%3,                            Lin%Zhang%NULL%3,                            Tao%He%NULL%3,                            Hairong%Wang%NULL%3,                            Jing%Wan%NULL%2,                            Xinghuan%Wang%NULL%0,                            Zhibing%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                            Yi%Xiang%NULL%0,                            Wei%Fang%NULL%0,                            Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                            Boqun%Li%279685211@qq.com%0,                            Boqun%Li%279685211@qq.com%0,                            Yanjun%Hu%huyanjun@163.com%0,                            Chunhui%Lang%NULL%0,                            Daoqiu%Huang%NULL%0,                            Qiuyan%Sun%NULL%0,                            Yan%Xiong%NULL%0,                            Xia%Huang%NULL%0,                            Jinglong%Lv%NULL%0,                            Yaling%Luo%NULL%0,                            Li%Shen%NULL%0,                            Haoran%Yang%NULL%0,                            Gu%Huang%NULL%0,                            Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                            Lei%Tu%NULL%5,                            Lei%Tu%NULL%0,                            Pingjun%Zhu%NULL%4,                            Pingjun%Zhu%NULL%0,                            Mi%Mu%NULL%5,                            Mi%Mu%NULL%0,                            Runsheng%Wang%NULL%3,                            Pengcheng%Yang%NULL%3,                            Xi%Wang%NULL%2,                            Chao%Hu%NULL%3,                            Rongyu%Ping%NULL%3,                            Peng%Hu%NULL%3,                            Tianzhi%Li%NULL%3,                            Feng%Cao%NULL%2,                            Christopher%Chang%NULL%2,                            Qinyong%Hu%NULL%3,                            Yang%Jin%NULL%2,                            Guogang%Xu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Liang%Chen%liang.chen9@hotmail.com%1,                            Xiangjie%Li%NULL%1,                            Mingquan%Chen%NULL%2,                            Mingquan%Chen%NULL%0,                            Yi%Feng%NULL%1,                            Chenglong%Xiong%xiongchenglong@fudan.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                           Cao%Yi-yuan%coreGivesNoEmail%0,                           Dong%Xiang%coreGivesNoEmail%0,                           Gao%Ya-dong%coreGivesNoEmail%0,                           Yan%You-qin%coreGivesNoEmail%0,                           Yang%Yi-bin%coreGivesNoEmail%0,                           Yuan%Ya-dong%coreGivesNoEmail%0,                           Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                            Wenbo%He%NULL%3,                            Xiaomei%Yu%NULL%3,                            Dalong%Hu%NULL%3,                            Mingwei%Bao%NULL%3,                            Huafen%Liu%NULL%3,                            Jiali%Zhou%NULL%3,                            Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                           Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                           Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                           Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                           Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%5,                            Xuan%Dong%NULL%5,                            Jieming%Qu%NULL%8,                            Fengyun%Gong%NULL%5,                            Yang%Han%NULL%4,                            Yang%Qiu%NULL%4,                            Jingli%Wang%NULL%5,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%4,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                           Bettinardi%Alessandra%coreGivesNoEmail%0,                           Bonetti%Graziella%coreGivesNoEmail%0,                           Borrelli%Gianluca%coreGivesNoEmail%0,                           Fiordalisi%Gianfranco%coreGivesNoEmail%0,                           Lippi%Giuseppe%coreGivesNoEmail%0,                           Manelli%Filippo%coreGivesNoEmail%0,                           Marino%Antonio%coreGivesNoEmail%0,                           Menolfi%Annamaria%coreGivesNoEmail%0,                           Patroni%Andrea%coreGivesNoEmail%0,                           Saggini%Sara%coreGivesNoEmail%0,                           Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE In December 2019, a new type of coronavirus-infected pneumonia broke out in Wuhan and spread rapidly to other parts of the country.
+ The purpose of this study was to investigate the clinical features of coronavirus disease 2019 (COVID-19).
+ MATERIALS AND METHODS A retrospective analysis was performed on the confirmed cases of COVID-19, who were admitted to the North Hospital of Changsha first Hospital (Changsha Public Health treatment Center) from January 17 to February 7, 2020. RESULTS The median age of COVID-19 patients was 45 years (range 33.5-57).
+ The male patients accounted for 49.7%, 64.6% of the patients had a history of exposure in Wuhan, and 31.7% had family aggregation.
+ The median days of onset were six, and the incidence of severe illness was 18.6%.
+ Compared with the non-severe group, the severe group showed statistical significance in older age, hypertension, bilateral lung plaque shadow, decrease in lymphocyte count, increase in C-reactive protein (CRP), aspartate aminotransferase (AST), lactate dehydrogenase, and creatine kinase.
+ CONCLUSIONS Age, combined hypertension, oxygenation index, double lung patch, decreased lymphocyte count, and elevated levels of C-reactive protein, aspartate aminotransferase, lactate dehydrogenase, and creatine kinase can be used as predictors of the disease severity.
+</t>
+  </si>
+  <si>
+    <t>[ F%Zheng%elasticNoEmail%0,   W% Tang%elasticNoEmail%0,   H% Li%elasticNoEmail%0,   Y-X% Huang%elasticNoEmail%0,   Y-L% Xie%elasticNoEmail%0,   Z-G% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                            Linlin%Xie%NULL%1,                            Rui%Liu%NULL%1,                            Jie%Yang%NULL%2,                            Fang%Liu%NULL%1,                            Kailang%Wu%NULL%1,                            Lang%Chen%NULL%1,                            Wei%Hou%NULL%2,                            Yong%Feng%yongfeng@whu.edu.cn%1,                            Chengliang%Zhu%xinchengzhu@163.com%2,                            Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%2,                            Shaobo%Shi%NULL%2,                            Shaobo%Shi%NULL%0,                            Jiling%Zhu%NULL%1,                            Jinzhi%Shi%NULL%1,                            Kai%Dai%NULL%1,                            Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%2,                            Bo%Hu%NULL%2,                            Yao%Zhang%NULL%1,                            Hao%Wang%NULL%1,                            Xiaoyang%Zhou%NULL%1,                            Wei%Hu%NULL%1,                            Yuting%Cheng%NULL%1,                            Jie%Yan%NULL%0,                            Haiqin%Ping%NULL%1,                            Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%2,                            Kwan Ho%Lee%NULL%2,                            Kwan Ho%Lee%NULL%0,                            Jin Hong%Chung%NULL%2,                            Jin Hong%Chung%NULL%0,                            Kyeong-Cheol%Shin%NULL%2,                            Kyeong-Cheol%Shin%NULL%0,                            Eun Young%Choi%NULL%2,                            Eun Young%Choi%NULL%0,                            Hyun Jung%Jin%NULL%2,                            Hyun Jung%Jin%NULL%0,                            Jong Geol%Jang%NULL%2,                            Jong Geol%Jang%NULL%0,                            Wonhwa%Lee%NULL%2,                            Wonhwa%Lee%NULL%0,                            June Hong%Ahn%NULL%2,                            June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yongli%Zheng%Zhyl1973@126.com%1,                            Hong%Xu%NULL%1,                            Ming%Yang%NULL%0,                            Yilan%Zeng%NULL%1,                            Hong%Chen%NULL%1,                            Ru%Liu%NULL%1,                            Qingfeng%Li%NULL%1,                            Na%Zhang%NULL%1,                            Dan%Wang%188170370@qq.com%2]</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2163,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2065,7 +2195,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -2097,7 +2227,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2161,7 +2291,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -2193,7 +2323,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -2225,7 +2355,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2257,7 +2387,7 @@
         <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2289,7 +2419,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -2321,7 +2451,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2353,7 +2483,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -2385,7 +2515,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -2417,7 +2547,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2443,22 +2573,22 @@
         <v>43891</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>507</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>529</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>530</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>510</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -2481,7 +2611,7 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
@@ -2513,7 +2643,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -2545,7 +2675,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
@@ -2577,7 +2707,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
@@ -2609,7 +2739,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
